--- a/ASHRAE901_ApartmentHighRise_STD2019_NewYorkTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_NewYorkTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2196.98</t>
+          <t>2653.73</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1414.94</t>
+          <t>2655.41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>454.69</t>
+          <t>737.85</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1178.45</t>
+          <t>2236.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>987.97</t>
+          <t>1828.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>981.71</t>
+          <t>1816.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1479.24</t>
+          <t>1872.34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1478.21</t>
+          <t>1859.80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3059.23</t>
+          <t>3362.48</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2265.75</t>
+          <t>3376.04</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2631.24</t>
+          <t>2929.54</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1872.22</t>
+          <t>2794.74</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1461.16</t>
+          <t>2165.60</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1453.05</t>
+          <t>2153.53</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1973.40</t>
+          <t>2157.20</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1963.33</t>
+          <t>2143.51</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3096.98</t>
+          <t>3402.03</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2300.14</t>
+          <t>3418.92</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2660.02</t>
+          <t>2919.57</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1905.50</t>
+          <t>2829.70</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1487.45</t>
+          <t>2186.40</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1496.58</t>
+          <t>2173.75</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1994.94</t>
+          <t>2178.91</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1984.43</t>
+          <t>2172.78</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3260.07</t>
+          <t>3424.07</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2316.43</t>
+          <t>3435.48</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2807.65</t>
+          <t>2922.79</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1920.89</t>
+          <t>2855.59</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1525.49</t>
+          <t>2201.82</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1517.47</t>
+          <t>2189.10</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2108.48</t>
+          <t>2196.55</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2095.96</t>
+          <t>2188.06</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3281.30</t>
+          <t>3445.92</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2324.20</t>
+          <t>3448.29</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2827.49</t>
+          <t>2939.70</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1928.77</t>
+          <t>2874.93</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1532.90</t>
+          <t>2212.77</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1524.90</t>
+          <t>2200.07</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2116.00</t>
+          <t>2171.64</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2103.40</t>
+          <t>2190.88</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3299.01</t>
+          <t>3465.38</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2328.70</t>
+          <t>3460.03</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2770.82</t>
+          <t>2952.91</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1933.67</t>
+          <t>2889.31</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1502.79</t>
+          <t>2221.88</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1494.63</t>
+          <t>2209.24</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2121.69</t>
+          <t>2187.06</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2109.14</t>
+          <t>2175.95</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3315.32</t>
+          <t>3484.14</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2333.12</t>
+          <t>3471.70</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2787.20</t>
+          <t>2974.37</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1938.47</t>
+          <t>2903.70</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1506.75</t>
+          <t>2235.56</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1498.62</t>
+          <t>2222.90</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2127.41</t>
+          <t>2188.76</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2115.01</t>
+          <t>2177.67</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3334.07</t>
+          <t>3480.88</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2345.24</t>
+          <t>3488.51</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2807.41</t>
+          <t>2994.47</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1949.72</t>
+          <t>2923.30</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1517.51</t>
+          <t>2256.34</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1509.38</t>
+          <t>2243.81</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2137.55</t>
+          <t>2207.72</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2125.42</t>
+          <t>2196.54</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3464.67</t>
+          <t>3588.48</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2446.79</t>
+          <t>3592.82</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2970.76</t>
+          <t>3063.10</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2001.64</t>
+          <t>2987.05</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1610.79</t>
+          <t>2363.19</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1609.35</t>
+          <t>2350.76</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2264.36</t>
+          <t>2301.32</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2252.61</t>
+          <t>2290.55</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4237.70</t>
+          <t>4375.36</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>2581.92</t>
+          <t>4145.99</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3500.12</t>
+          <t>3727.93</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1679.62</t>
+          <t>3470.15</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1832.50</t>
+          <t>2712.28</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1801.10</t>
+          <t>2685.91</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2697.67</t>
+          <t>2847.54</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2695.86</t>
+          <t>2853.35</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2062.25</t>
+          <t>2691.00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>135.80</t>
+          <t>2652.66</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>320.48</t>
+          <t>717.70</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>134.82</t>
+          <t>2261.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>146.36</t>
+          <t>1876.51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>146.07</t>
+          <t>1867.50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1386.07</t>
+          <t>1808.71</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1375.98</t>
+          <t>1803.38</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2308.31</t>
+          <t>3489.15</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2725.62</t>
+          <t>3375.85</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1928.40</t>
+          <t>2911.05</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>254.48</t>
+          <t>2804.34</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1440.28</t>
+          <t>2167.81</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1110.24</t>
+          <t>2156.15</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1655.38</t>
+          <t>2120.62</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1642.63</t>
+          <t>2108.82</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2371.81</t>
+          <t>3527.84</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2770.22</t>
+          <t>3405.10</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1963.46</t>
+          <t>2933.39</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1468.59</t>
+          <t>2852.55</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1750.50</t>
+          <t>2187.89</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1736.13</t>
+          <t>2181.19</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1677.83</t>
+          <t>2139.45</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1663.68</t>
+          <t>2127.02</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2400.49</t>
+          <t>3555.29</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2789.50</t>
+          <t>3427.58</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2317.89</t>
+          <t>2958.81</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1431.05</t>
+          <t>2874.15</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1765.86</t>
+          <t>2209.32</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1751.66</t>
+          <t>2193.44</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1689.93</t>
+          <t>2153.01</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1672.74</t>
+          <t>2140.91</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2416.87</t>
+          <t>3571.89</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2798.20</t>
+          <t>3443.14</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2320.02</t>
+          <t>2983.25</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>1030.89</t>
+          <t>2892.02</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1772.84</t>
+          <t>2217.33</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1758.70</t>
+          <t>2203.84</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1742.92</t>
+          <t>2164.09</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1730.88</t>
+          <t>2153.85</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2426.87</t>
+          <t>3588.52</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2801.63</t>
+          <t>3456.89</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2324.61</t>
+          <t>2999.53</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>491.50</t>
+          <t>2901.81</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1673.06</t>
+          <t>2221.50</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1359.26</t>
+          <t>2211.53</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1747.13</t>
+          <t>2176.79</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1735.14</t>
+          <t>2166.52</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2430.77</t>
+          <t>3601.42</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2384.41</t>
+          <t>3471.89</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2327.87</t>
+          <t>3008.56</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>309.08</t>
+          <t>2915.19</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1107.82</t>
+          <t>2242.20</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>788.71</t>
+          <t>2228.38</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1740.18</t>
+          <t>2189.32</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1687.26</t>
+          <t>2178.73</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2434.78</t>
+          <t>3622.60</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>1813.02</t>
+          <t>3496.02</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2336.03</t>
+          <t>3030.50</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>275.64</t>
+          <t>2934.92</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>519.52</t>
+          <t>2261.66</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>447.99</t>
+          <t>2252.81</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1712.28</t>
+          <t>2201.70</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1696.26</t>
+          <t>2197.31</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2905.26</t>
+          <t>3751.52</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>2053.59</t>
+          <t>3627.28</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2408.93</t>
+          <t>3093.08</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>323.91</t>
+          <t>3006.09</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>706.00</t>
+          <t>2373.89</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>436.36</t>
+          <t>2360.40</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1801.20</t>
+          <t>2294.56</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1788.27</t>
+          <t>2283.88</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3098.30</t>
+          <t>4587.03</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>2934.16</t>
+          <t>4266.95</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2561.41</t>
+          <t>3769.49</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>2090.11</t>
+          <t>3598.39</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2184.65</t>
+          <t>2727.78</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2039.57</t>
+          <t>2702.29</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1904.55</t>
+          <t>2871.92</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1899.12</t>
+          <t>2875.64</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1787.96</t>
+          <t>2639.58</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1742.61</t>
+          <t>2706.92</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>311.24</t>
+          <t>624.42</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1464.69</t>
+          <t>2273.44</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1188.09</t>
+          <t>1866.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1182.29</t>
+          <t>1855.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1180.27</t>
+          <t>1833.52</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1174.86</t>
+          <t>1823.67</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2479.61</t>
+          <t>3354.19</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2372.20</t>
+          <t>3432.94</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2119.04</t>
+          <t>2906.77</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1924.73</t>
+          <t>2832.23</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1456.24</t>
+          <t>2194.00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1450.82</t>
+          <t>2182.58</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1465.84</t>
+          <t>2152.22</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1458.08</t>
+          <t>2142.40</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2511.09</t>
+          <t>3387.07</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2433.87</t>
+          <t>3458.86</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2101.19</t>
+          <t>2910.78</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1989.70</t>
+          <t>2871.48</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1492.09</t>
+          <t>2209.19</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1484.76</t>
+          <t>2197.83</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1475.59</t>
+          <t>2165.89</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1465.31</t>
+          <t>2156.34</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2524.93</t>
+          <t>3411.32</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2451.60</t>
+          <t>3479.09</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2103.18</t>
+          <t>2929.39</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2013.45</t>
+          <t>2894.37</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1505.63</t>
+          <t>2225.91</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1498.40</t>
+          <t>2206.44</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1501.84</t>
+          <t>2169.62</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1481.06</t>
+          <t>2158.67</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2529.07</t>
+          <t>3427.90</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2459.47</t>
+          <t>3498.08</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2113.79</t>
+          <t>2942.06</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2021.27</t>
+          <t>2911.85</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1497.99</t>
+          <t>2228.30</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1490.68</t>
+          <t>2214.38</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1495.90</t>
+          <t>2110.99</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1493.79</t>
+          <t>2099.49</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2530.22</t>
+          <t>3445.18</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2463.61</t>
+          <t>3511.21</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2131.98</t>
+          <t>2955.91</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2021.25</t>
+          <t>2929.50</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1470.02</t>
+          <t>2244.14</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1462.82</t>
+          <t>2230.03</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1474.73</t>
+          <t>2118.82</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1466.59</t>
+          <t>2107.50</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2530.89</t>
+          <t>3462.17</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2467.25</t>
+          <t>3527.37</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2138.53</t>
+          <t>2965.00</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2015.77</t>
+          <t>2942.98</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1472.35</t>
+          <t>2259.79</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1465.22</t>
+          <t>2249.04</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1463.52</t>
+          <t>2125.26</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1455.70</t>
+          <t>2113.66</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2540.50</t>
+          <t>3482.10</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2482.34</t>
+          <t>3548.14</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2156.73</t>
+          <t>2987.45</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2033.90</t>
+          <t>2970.57</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1481.21</t>
+          <t>2286.93</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1474.05</t>
+          <t>2272.73</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1464.61</t>
+          <t>2139.71</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1457.57</t>
+          <t>2140.03</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2645.75</t>
+          <t>3589.23</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2593.50</t>
+          <t>3661.54</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2231.53</t>
+          <t>3073.15</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2120.13</t>
+          <t>3036.33</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1567.82</t>
+          <t>2391.88</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1562.88</t>
+          <t>2377.75</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1583.97</t>
+          <t>2253.26</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1578.21</t>
+          <t>2239.15</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3417.06</t>
+          <t>4364.44</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3256.33</t>
+          <t>4414.86</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2920.67</t>
+          <t>3725.63</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2691.53</t>
+          <t>3593.25</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2032.06</t>
+          <t>2762.45</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2016.85</t>
+          <t>2731.24</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2122.22</t>
+          <t>2830.77</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2122.09</t>
+          <t>2838.48</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1706.24</t>
+          <t>2523.05</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1809.24</t>
+          <t>2685.42</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>253.73</t>
+          <t>738.28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1505.69</t>
+          <t>2311.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1250.99</t>
+          <t>1862.50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1244.76</t>
+          <t>1854.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1175.68</t>
+          <t>1776.35</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1179.73</t>
+          <t>1773.61</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2372.87</t>
+          <t>3249.24</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2401.15</t>
+          <t>3376.83</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2132.70</t>
+          <t>2834.83</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1933.60</t>
+          <t>2841.40</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1496.63</t>
+          <t>2158.12</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1494.76</t>
+          <t>2147.32</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1423.98</t>
+          <t>2010.53</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1419.07</t>
+          <t>2001.76</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2399.13</t>
+          <t>3300.24</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2419.16</t>
+          <t>3418.65</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2073.96</t>
+          <t>2828.29</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1964.04</t>
+          <t>2870.14</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1526.59</t>
+          <t>2171.60</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1521.07</t>
+          <t>2160.84</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1437.64</t>
+          <t>2025.37</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1429.58</t>
+          <t>2015.95</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2429.43</t>
+          <t>3308.21</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2519.59</t>
+          <t>3455.93</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2028.08</t>
+          <t>2839.85</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2024.85</t>
+          <t>2906.93</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1539.51</t>
+          <t>2186.25</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1535.50</t>
+          <t>2175.48</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1450.63</t>
+          <t>2039.48</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1441.84</t>
+          <t>2030.57</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2436.68</t>
+          <t>3324.48</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2519.99</t>
+          <t>3482.28</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2026.36</t>
+          <t>2869.49</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2030.12</t>
+          <t>2916.66</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1547.51</t>
+          <t>2210.51</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1541.88</t>
+          <t>2200.06</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1461.05</t>
+          <t>2072.34</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1452.10</t>
+          <t>2061.49</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2441.90</t>
+          <t>3290.54</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2516.29</t>
+          <t>3497.75</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2022.81</t>
+          <t>2906.37</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2033.06</t>
+          <t>2923.57</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1548.52</t>
+          <t>2218.37</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1545.01</t>
+          <t>2207.93</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1469.87</t>
+          <t>2057.52</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1460.87</t>
+          <t>2069.27</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2447.66</t>
+          <t>3305.34</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2514.29</t>
+          <t>3514.36</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2022.23</t>
+          <t>2918.01</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2036.90</t>
+          <t>2941.42</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1552.32</t>
+          <t>2224.76</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1548.72</t>
+          <t>2217.48</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1478.53</t>
+          <t>2065.78</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1469.52</t>
+          <t>2058.03</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2463.20</t>
+          <t>3327.52</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2472.12</t>
+          <t>3535.76</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2038.06</t>
+          <t>2935.83</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2051.25</t>
+          <t>2978.93</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1563.34</t>
+          <t>2241.89</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1559.88</t>
+          <t>2231.90</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1492.75</t>
+          <t>2081.62</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1483.80</t>
+          <t>2074.98</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2549.63</t>
+          <t>3407.13</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2542.66</t>
+          <t>3645.65</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2095.63</t>
+          <t>3000.36</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2112.01</t>
+          <t>3040.10</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1643.63</t>
+          <t>2329.36</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1634.96</t>
+          <t>2319.88</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1575.00</t>
+          <t>2173.18</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1566.21</t>
+          <t>2165.75</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3288.54</t>
+          <t>4180.06</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3303.53</t>
+          <t>4214.55</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2709.82</t>
+          <t>3585.58</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2678.39</t>
+          <t>3632.05</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2010.45</t>
+          <t>2716.54</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1988.87</t>
+          <t>2690.21</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1969.51</t>
+          <t>2655.74</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1967.67</t>
+          <t>2667.93</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1967.11</t>
+          <t>2540.97</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2115.53</t>
+          <t>2664.74</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>35.72</t>
+          <t>694.76</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1744.96</t>
+          <t>2313.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1418.55</t>
+          <t>1864.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1411.57</t>
+          <t>1856.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1278.46</t>
+          <t>1692.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1285.69</t>
+          <t>1690.77</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2625.87</t>
+          <t>3198.21</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2782.48</t>
+          <t>3349.95</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2230.90</t>
+          <t>2832.50</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2258.25</t>
+          <t>2843.46</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1715.28</t>
+          <t>2134.74</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1706.25</t>
+          <t>2123.37</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1546.17</t>
+          <t>1996.61</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1542.63</t>
+          <t>1982.37</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2647.33</t>
+          <t>3219.46</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2803.24</t>
+          <t>3371.39</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2199.91</t>
+          <t>2830.70</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2288.28</t>
+          <t>2887.93</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1738.19</t>
+          <t>2148.24</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1729.31</t>
+          <t>2135.55</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1570.41</t>
+          <t>2006.86</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1563.12</t>
+          <t>1996.54</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2660.80</t>
+          <t>3242.08</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2818.14</t>
+          <t>3394.45</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2208.48</t>
+          <t>2847.79</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2302.99</t>
+          <t>2914.37</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1753.91</t>
+          <t>2164.39</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1745.20</t>
+          <t>2151.63</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1584.91</t>
+          <t>2027.70</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1576.59</t>
+          <t>2011.52</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2670.48</t>
+          <t>3262.65</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2828.84</t>
+          <t>3414.47</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2218.43</t>
+          <t>2863.85</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2312.96</t>
+          <t>2932.10</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1762.57</t>
+          <t>2179.79</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1753.72</t>
+          <t>2168.45</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1594.06</t>
+          <t>2027.44</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1585.32</t>
+          <t>2019.49</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2666.12</t>
+          <t>3280.64</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2837.08</t>
+          <t>3429.06</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2227.19</t>
+          <t>2878.96</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2320.96</t>
+          <t>2947.01</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1770.37</t>
+          <t>2198.75</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1761.47</t>
+          <t>2187.37</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1602.63</t>
+          <t>2047.06</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1593.85</t>
+          <t>2035.42</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2675.29</t>
+          <t>3297.70</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2845.38</t>
+          <t>3445.56</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2236.02</t>
+          <t>2894.03</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2328.94</t>
+          <t>2961.73</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1776.43</t>
+          <t>2221.59</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1767.46</t>
+          <t>2206.54</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1608.88</t>
+          <t>2074.51</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1600.03</t>
+          <t>2063.50</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2692.80</t>
+          <t>3321.22</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2859.50</t>
+          <t>3467.48</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2250.64</t>
+          <t>2914.30</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2342.99</t>
+          <t>2981.83</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1788.48</t>
+          <t>2245.93</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1779.47</t>
+          <t>2230.75</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1620.71</t>
+          <t>2093.77</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1611.81</t>
+          <t>2082.77</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2792.73</t>
+          <t>3421.57</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2960.77</t>
+          <t>3570.45</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2317.33</t>
+          <t>2979.42</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2410.04</t>
+          <t>3044.01</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1869.87</t>
+          <t>2352.98</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1861.03</t>
+          <t>2341.94</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1699.39</t>
+          <t>2183.98</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1690.63</t>
+          <t>2172.65</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3348.88</t>
+          <t>4053.23</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3482.81</t>
+          <t>4169.17</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2779.89</t>
+          <t>3582.05</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2870.90</t>
+          <t>3613.68</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2212.47</t>
+          <t>2703.56</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2188.43</t>
+          <t>2680.74</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2056.87</t>
+          <t>2630.96</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2053.41</t>
+          <t>2637.13</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1686.31</t>
+          <t>2462.63</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1841.57</t>
+          <t>2614.81</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>584.55</t>
+          <t>852.97</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1478.82</t>
+          <t>2200.23</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1153.08</t>
+          <t>1790.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1155.22</t>
+          <t>1782.57</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1065.61</t>
+          <t>1656.24</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1085.54</t>
+          <t>1651.03</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2276.35</t>
+          <t>3107.20</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2447.07</t>
+          <t>3238.86</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1944.65</t>
+          <t>2684.46</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1922.66</t>
+          <t>2721.54</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1432.47</t>
+          <t>2090.28</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1434.97</t>
+          <t>2079.23</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1318.27</t>
+          <t>1907.21</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1324.86</t>
+          <t>1897.01</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2285.43</t>
+          <t>3133.86</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2455.82</t>
+          <t>3265.83</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1857.29</t>
+          <t>2695.34</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1935.47</t>
+          <t>2749.83</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1459.95</t>
+          <t>2105.34</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1463.38</t>
+          <t>2094.34</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1339.09</t>
+          <t>1923.42</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1337.68</t>
+          <t>1911.09</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2297.91</t>
+          <t>3161.15</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2467.38</t>
+          <t>3292.37</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1848.76</t>
+          <t>2718.70</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1946.87</t>
+          <t>2773.41</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1468.91</t>
+          <t>2122.56</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1474.74</t>
+          <t>2111.59</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1349.40</t>
+          <t>1941.89</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1346.37</t>
+          <t>1929.25</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2308.96</t>
+          <t>3184.62</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2477.48</t>
+          <t>3315.14</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1856.62</t>
+          <t>2739.85</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1956.75</t>
+          <t>2793.47</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1467.72</t>
+          <t>2137.54</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1478.09</t>
+          <t>2126.60</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1355.04</t>
+          <t>1958.12</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1352.09</t>
+          <t>1945.45</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2318.47</t>
+          <t>3204.96</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2486.34</t>
+          <t>3334.91</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1860.01</t>
+          <t>2758.18</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1965.23</t>
+          <t>2813.84</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1468.74</t>
+          <t>2141.38</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1474.00</t>
+          <t>2128.88</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1356.28</t>
+          <t>1972.07</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1356.49</t>
+          <t>1961.07</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2327.62</t>
+          <t>3223.86</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2495.02</t>
+          <t>3353.32</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1864.01</t>
+          <t>2775.27</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1973.47</t>
+          <t>2830.29</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1469.50</t>
+          <t>2156.12</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1469.67</t>
+          <t>2143.62</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1360.33</t>
+          <t>1975.14</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1359.26</t>
+          <t>1964.21</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2342.21</t>
+          <t>3247.61</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2509.41</t>
+          <t>3376.82</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1874.07</t>
+          <t>2796.89</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1986.80</t>
+          <t>2851.44</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1472.06</t>
+          <t>2178.12</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1474.30</t>
+          <t>2165.67</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1368.34</t>
+          <t>1994.32</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1364.53</t>
+          <t>1983.42</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2434.06</t>
+          <t>3351.89</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2604.22</t>
+          <t>3478.68</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1949.19</t>
+          <t>2859.22</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2048.91</t>
+          <t>2910.29</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1546.68</t>
+          <t>2281.95</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1539.02</t>
+          <t>2269.36</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1435.05</t>
+          <t>2090.90</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1431.39</t>
+          <t>2078.30</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2881.90</t>
+          <t>3835.42</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3125.13</t>
+          <t>3947.63</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2353.40</t>
+          <t>3318.38</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2499.43</t>
+          <t>3354.51</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1895.10</t>
+          <t>2594.61</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1872.24</t>
+          <t>2569.45</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1754.32</t>
+          <t>2546.32</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1755.41</t>
+          <t>2548.42</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1775.11</t>
+          <t>2427.91</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1916.50</t>
+          <t>2511.10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>574.45</t>
+          <t>1104.59</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1568.19</t>
+          <t>2165.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1213.96</t>
+          <t>1773.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1207.85</t>
+          <t>1765.04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1082.00</t>
+          <t>1673.98</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1108.58</t>
+          <t>1671.05</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2329.92</t>
+          <t>3027.66</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2484.85</t>
+          <t>3114.67</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024.52</t>
+          <t>2643.00</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1985.32</t>
+          <t>2639.11</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1455.41</t>
+          <t>2041.55</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1446.72</t>
+          <t>2030.99</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1299.22</t>
+          <t>1910.26</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1297.75</t>
+          <t>1902.51</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2338.04</t>
+          <t>3052.63</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2495.12</t>
+          <t>3138.45</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1913.92</t>
+          <t>2642.10</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1992.81</t>
+          <t>2662.92</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1455.61</t>
+          <t>2051.23</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1448.70</t>
+          <t>2040.73</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1302.23</t>
+          <t>1923.87</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1295.74</t>
+          <t>1913.42</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2349.99</t>
+          <t>3079.34</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2507.08</t>
+          <t>3161.53</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1906.77</t>
+          <t>2662.84</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1994.04</t>
+          <t>2684.96</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1465.72</t>
+          <t>2066.59</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1459.33</t>
+          <t>2056.13</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1313.45</t>
+          <t>1940.73</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1305.66</t>
+          <t>1930.03</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2360.01</t>
+          <t>3102.47</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2517.35</t>
+          <t>3182.73</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1914.42</t>
+          <t>2683.43</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1996.38</t>
+          <t>2703.84</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1473.32</t>
+          <t>2080.20</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1466.92</t>
+          <t>2069.77</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1322.52</t>
+          <t>1955.43</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1315.79</t>
+          <t>1944.71</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2366.14</t>
+          <t>3122.55</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2526.75</t>
+          <t>3201.13</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1922.80</t>
+          <t>2701.39</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1998.67</t>
+          <t>2723.03</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1480.16</t>
+          <t>2092.05</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1473.75</t>
+          <t>2081.65</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1330.39</t>
+          <t>1968.24</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1324.15</t>
+          <t>1957.53</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2375.67</t>
+          <t>3141.23</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2535.89</t>
+          <t>3218.30</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1930.41</t>
+          <t>2718.17</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2002.08</t>
+          <t>2738.56</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1486.92</t>
+          <t>2103.50</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1480.55</t>
+          <t>2093.12</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1338.04</t>
+          <t>1980.52</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1331.15</t>
+          <t>1969.82</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2390.59</t>
+          <t>3164.99</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2550.64</t>
+          <t>3240.60</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1939.62</t>
+          <t>2739.66</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2016.31</t>
+          <t>2758.80</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1498.70</t>
+          <t>2120.89</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1492.32</t>
+          <t>2110.56</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1350.58</t>
+          <t>1998.86</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1343.16</t>
+          <t>1988.21</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2482.40</t>
+          <t>3262.24</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2646.01</t>
+          <t>3340.23</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1979.80</t>
+          <t>2801.00</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2089.16</t>
+          <t>2815.85</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1575.74</t>
+          <t>2209.07</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1566.59</t>
+          <t>2198.70</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1422.65</t>
+          <t>2086.98</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1416.49</t>
+          <t>2076.28</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2964.02</t>
+          <t>3766.23</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3182.16</t>
+          <t>3808.83</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2430.17</t>
+          <t>3275.44</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2514.32</t>
+          <t>3260.65</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1941.78</t>
+          <t>2493.61</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1920.00</t>
+          <t>2470.10</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1810.78</t>
+          <t>2497.82</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1807.55</t>
+          <t>2500.36</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1817.15</t>
+          <t>2319.23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1859.85</t>
+          <t>2440.15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>752.58</t>
+          <t>1332.66</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1549.34</t>
+          <t>2047.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1190.33</t>
+          <t>1626.06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1184.57</t>
+          <t>1625.90</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1125.45</t>
+          <t>1521.80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1145.21</t>
+          <t>1566.29</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2377.29</t>
+          <t>2969.95</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2364.73</t>
+          <t>3076.79</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2041.38</t>
+          <t>2577.44</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1917.59</t>
+          <t>2563.75</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1419.08</t>
+          <t>1900.15</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1410.23</t>
+          <t>1888.11</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1345.83</t>
+          <t>1778.86</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1343.94</t>
+          <t>1779.38</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2371.36</t>
+          <t>2991.85</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2355.51</t>
+          <t>3108.43</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1993.49</t>
+          <t>2566.81</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1910.50</t>
+          <t>2599.03</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1417.98</t>
+          <t>1914.89</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1409.46</t>
+          <t>1903.54</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1346.57</t>
+          <t>1777.87</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1339.41</t>
+          <t>1777.81</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2377.84</t>
+          <t>3022.75</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2357.57</t>
+          <t>3140.93</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1994.93</t>
+          <t>2594.13</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1911.57</t>
+          <t>2629.82</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1426.06</t>
+          <t>1936.35</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1417.59</t>
+          <t>1925.09</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1353.39</t>
+          <t>1794.76</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1345.03</t>
+          <t>1789.21</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2385.10</t>
+          <t>3047.78</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2360.99</t>
+          <t>3167.62</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2002.88</t>
+          <t>2615.63</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1915.72</t>
+          <t>2654.76</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1432.70</t>
+          <t>1950.05</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1424.23</t>
+          <t>1938.85</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1360.15</t>
+          <t>1814.85</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1351.55</t>
+          <t>1803.98</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2391.76</t>
+          <t>3069.09</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2364.39</t>
+          <t>3189.33</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2010.73</t>
+          <t>2640.44</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1919.88</t>
+          <t>2679.02</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1438.71</t>
+          <t>1962.88</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1430.25</t>
+          <t>1951.68</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1366.26</t>
+          <t>1831.76</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1357.62</t>
+          <t>1821.71</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2398.63</t>
+          <t>3088.87</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2368.33</t>
+          <t>3208.48</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2018.73</t>
+          <t>2658.36</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1924.40</t>
+          <t>2699.80</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1444.98</t>
+          <t>1974.23</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1436.53</t>
+          <t>1963.08</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1372.61</t>
+          <t>1847.81</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1363.97</t>
+          <t>1837.80</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2411.11</t>
+          <t>3114.04</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2377.98</t>
+          <t>3232.47</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2031.81</t>
+          <t>2683.40</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1933.94</t>
+          <t>2721.85</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1457.05</t>
+          <t>1991.64</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1448.62</t>
+          <t>1980.56</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1384.73</t>
+          <t>1870.06</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1376.11</t>
+          <t>1860.13</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2498.21</t>
+          <t>3221.49</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2458.96</t>
+          <t>3340.14</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2086.43</t>
+          <t>2751.79</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2006.12</t>
+          <t>2790.06</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1534.50</t>
+          <t>2080.37</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1526.10</t>
+          <t>2069.33</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1461.48</t>
+          <t>1961.92</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1452.95</t>
+          <t>1951.20</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2927.12</t>
+          <t>3548.11</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2934.90</t>
+          <t>3884.70</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2564.78</t>
+          <t>3259.43</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2405.09</t>
+          <t>3268.92</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1854.89</t>
+          <t>2415.86</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1836.56</t>
+          <t>2389.53</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1851.81</t>
+          <t>2414.33</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1851.19</t>
+          <t>2418.38</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1906.29</t>
+          <t>2519.47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1917.49</t>
+          <t>2656.80</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>825.39</t>
+          <t>1373.13</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1608.82</t>
+          <t>2263.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1318.75</t>
+          <t>1829.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1313.96</t>
+          <t>1821.45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1275.26</t>
+          <t>1705.11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1321.64</t>
+          <t>1701.96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2429.99</t>
+          <t>3142.44</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2321.39</t>
+          <t>3271.04</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2177.30</t>
+          <t>2746.38</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1940.53</t>
+          <t>2756.22</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1505.08</t>
+          <t>2112.87</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1497.92</t>
+          <t>2100.61</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1459.03</t>
+          <t>1945.61</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1456.39</t>
+          <t>1936.81</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2428.29</t>
+          <t>3169.50</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2319.44</t>
+          <t>3300.02</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2146.06</t>
+          <t>2716.69</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1941.15</t>
+          <t>2782.94</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1500.31</t>
+          <t>2120.18</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1493.07</t>
+          <t>2107.37</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1460.18</t>
+          <t>1962.15</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1453.46</t>
+          <t>1951.50</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2436.36</t>
+          <t>3196.61</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2329.09</t>
+          <t>3330.00</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2056.23</t>
+          <t>2726.29</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1950.89</t>
+          <t>2809.45</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1508.02</t>
+          <t>2134.32</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1500.82</t>
+          <t>2123.30</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1470.19</t>
+          <t>1980.26</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1462.31</t>
+          <t>1969.25</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2444.65</t>
+          <t>3222.64</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2339.39</t>
+          <t>3355.76</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2037.96</t>
+          <t>2740.88</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1960.93</t>
+          <t>2832.26</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1515.26</t>
+          <t>2150.59</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1508.08</t>
+          <t>2139.58</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1480.17</t>
+          <t>1996.54</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1471.71</t>
+          <t>1985.46</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2452.13</t>
+          <t>3245.25</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2348.82</t>
+          <t>3378.38</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2033.59</t>
+          <t>2758.27</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1970.03</t>
+          <t>2852.91</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1522.10</t>
+          <t>2164.76</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1514.91</t>
+          <t>2153.77</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1489.24</t>
+          <t>2010.78</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1480.62</t>
+          <t>1999.69</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2459.68</t>
+          <t>3261.73</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2358.21</t>
+          <t>3399.39</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2038.14</t>
+          <t>2776.05</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1978.99</t>
+          <t>2865.66</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1529.00</t>
+          <t>2178.29</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1521.82</t>
+          <t>2167.31</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1498.30</t>
+          <t>2024.36</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1489.64</t>
+          <t>2013.27</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2472.85</t>
+          <t>3278.45</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2373.90</t>
+          <t>3425.82</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2036.82</t>
+          <t>2810.38</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1993.45</t>
+          <t>2885.08</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1542.04</t>
+          <t>2197.72</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1534.89</t>
+          <t>2186.78</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1512.61</t>
+          <t>2043.88</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1504.23</t>
+          <t>2032.83</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2563.04</t>
+          <t>3378.51</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2451.86</t>
+          <t>3532.21</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2093.82</t>
+          <t>2874.69</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2040.17</t>
+          <t>2949.40</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1609.91</t>
+          <t>2286.83</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1602.77</t>
+          <t>2275.53</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1593.63</t>
+          <t>2132.13</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1585.12</t>
+          <t>2121.04</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2990.71</t>
+          <t>3904.82</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2815.21</t>
+          <t>4023.80</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2653.25</t>
+          <t>3339.19</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2379.76</t>
+          <t>3428.83</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1823.24</t>
+          <t>2625.06</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1805.10</t>
+          <t>2597.42</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2002.36</t>
+          <t>2571.59</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2002.34</t>
+          <t>2574.11</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2407.77</t>
+          <t>2643.37</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2410.12</t>
+          <t>2736.07</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1123.10</t>
+          <t>1582.41</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2053.97</t>
+          <t>2317.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1637.40</t>
+          <t>1888.78</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1632.86</t>
+          <t>1880.46</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1617.23</t>
+          <t>1838.98</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1623.14</t>
+          <t>1850.31</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3071.84</t>
+          <t>3338.05</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3041.15</t>
+          <t>3381.77</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2679.18</t>
+          <t>2916.15</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2536.01</t>
+          <t>2835.87</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1897.05</t>
+          <t>2197.93</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1886.74</t>
+          <t>2184.80</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1874.45</t>
+          <t>2097.52</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1871.41</t>
+          <t>2099.16</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3075.49</t>
+          <t>3358.12</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3038.82</t>
+          <t>3396.77</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2671.14</t>
+          <t>2891.24</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2555.36</t>
+          <t>2851.28</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1918.78</t>
+          <t>2219.74</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1903.73</t>
+          <t>2205.80</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1877.96</t>
+          <t>2106.02</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1869.68</t>
+          <t>2093.15</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3087.08</t>
+          <t>3373.58</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3071.08</t>
+          <t>3415.44</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2670.03</t>
+          <t>2916.14</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2576.03</t>
+          <t>2866.75</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1957.54</t>
+          <t>2242.35</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1947.28</t>
+          <t>2181.21</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1878.74</t>
+          <t>2112.52</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1877.10</t>
+          <t>2104.55</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3099.32</t>
+          <t>3390.46</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3105.91</t>
+          <t>3429.99</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2680.22</t>
+          <t>2940.43</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2588.67</t>
+          <t>2881.64</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1957.69</t>
+          <t>2207.83</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1959.44</t>
+          <t>2197.17</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1887.10</t>
+          <t>2124.92</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1879.96</t>
+          <t>2115.38</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3109.92</t>
+          <t>3409.13</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3112.49</t>
+          <t>3444.40</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2689.91</t>
+          <t>2961.61</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2603.05</t>
+          <t>2896.09</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1958.60</t>
+          <t>2222.03</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1955.56</t>
+          <t>2211.39</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1894.90</t>
+          <t>2134.92</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1887.28</t>
+          <t>2127.39</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3120.40</t>
+          <t>3431.14</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3106.78</t>
+          <t>3459.66</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2700.58</t>
+          <t>2981.60</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2614.35</t>
+          <t>2898.99</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1952.74</t>
+          <t>2235.58</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1959.38</t>
+          <t>2224.96</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1903.65</t>
+          <t>2145.35</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1894.58</t>
+          <t>2135.91</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3136.87</t>
+          <t>3457.15</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3119.65</t>
+          <t>3478.45</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2717.04</t>
+          <t>3006.21</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2634.39</t>
+          <t>2921.74</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1958.91</t>
+          <t>2255.09</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1960.15</t>
+          <t>2244.51</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1917.91</t>
+          <t>2163.89</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1910.09</t>
+          <t>2152.42</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3239.46</t>
+          <t>3560.41</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3194.30</t>
+          <t>3583.74</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2784.16</t>
+          <t>3083.66</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2692.82</t>
+          <t>2984.46</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2040.98</t>
+          <t>2343.39</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2034.42</t>
+          <t>2332.80</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2006.77</t>
+          <t>2235.34</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1998.73</t>
+          <t>2226.33</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4005.06</t>
+          <t>4342.90</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3870.52</t>
+          <t>4205.09</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3474.91</t>
+          <t>3748.85</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3361.94</t>
+          <t>3640.77</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2472.99</t>
+          <t>2727.64</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2463.79</t>
+          <t>2700.92</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2548.85</t>
+          <t>2797.84</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2561.43</t>
+          <t>2810.71</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2658.21</t>
+          <t>2672.69</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2497.75</t>
+          <t>2758.52</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1017.72</t>
+          <t>1324.51</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2115.41</t>
+          <t>2347.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1728.56</t>
+          <t>1907.42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1721.36</t>
+          <t>1899.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1737.52</t>
+          <t>1883.15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1773.57</t>
+          <t>1849.37</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3405.36</t>
+          <t>3372.39</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3104.51</t>
+          <t>3415.22</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2890.19</t>
+          <t>2983.89</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2580.99</t>
+          <t>2872.68</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1995.02</t>
+          <t>2221.51</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1985.02</t>
+          <t>2212.23</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1997.31</t>
+          <t>2129.08</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1993.90</t>
+          <t>2139.36</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3421.45</t>
+          <t>3385.86</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3106.15</t>
+          <t>3444.48</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2876.29</t>
+          <t>2949.90</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2586.77</t>
+          <t>2901.64</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1994.16</t>
+          <t>2238.54</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1984.07</t>
+          <t>2226.77</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2050.35</t>
+          <t>2146.97</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2038.68</t>
+          <t>2136.85</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3436.55</t>
+          <t>3410.53</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2948.42</t>
+          <t>3467.94</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2895.43</t>
+          <t>2970.17</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2587.40</t>
+          <t>2922.45</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1999.10</t>
+          <t>2259.06</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1988.88</t>
+          <t>2247.79</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2105.40</t>
+          <t>2159.21</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2093.01</t>
+          <t>2152.39</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3448.27</t>
+          <t>3429.11</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2949.52</t>
+          <t>3490.02</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2907.58</t>
+          <t>2984.78</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2458.27</t>
+          <t>2926.49</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1972.07</t>
+          <t>2272.55</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1990.45</t>
+          <t>2261.43</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2113.43</t>
+          <t>2175.29</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2100.95</t>
+          <t>2164.79</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3462.51</t>
+          <t>3447.05</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2962.71</t>
+          <t>3507.23</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2912.75</t>
+          <t>3005.32</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2470.67</t>
+          <t>2947.37</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1909.28</t>
+          <t>2288.55</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1899.73</t>
+          <t>2277.63</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2120.37</t>
+          <t>2188.45</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2107.86</t>
+          <t>2178.95</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3473.08</t>
+          <t>3464.97</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2974.81</t>
+          <t>3524.82</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2916.92</t>
+          <t>3023.57</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2482.16</t>
+          <t>2963.73</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1918.50</t>
+          <t>2300.96</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1908.80</t>
+          <t>2289.99</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2127.58</t>
+          <t>2202.12</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2115.06</t>
+          <t>2192.58</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3492.47</t>
+          <t>3487.81</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2993.58</t>
+          <t>3550.06</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2933.93</t>
+          <t>3045.33</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2499.70</t>
+          <t>2985.70</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1934.01</t>
+          <t>2320.87</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1924.37</t>
+          <t>2309.58</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2141.71</t>
+          <t>2223.69</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2129.20</t>
+          <t>2212.82</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3611.90</t>
+          <t>3589.60</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3100.83</t>
+          <t>3668.27</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3015.98</t>
+          <t>3109.34</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2566.78</t>
+          <t>3070.00</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2028.00</t>
+          <t>2418.44</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2018.55</t>
+          <t>2407.58</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2244.11</t>
+          <t>2311.33</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2232.08</t>
+          <t>2298.55</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4490.86</t>
+          <t>4353.24</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3569.99</t>
+          <t>4244.07</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3721.16</t>
+          <t>3832.61</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3011.40</t>
+          <t>3573.81</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2214.79</t>
+          <t>2756.74</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2183.08</t>
+          <t>2727.05</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2720.26</t>
+          <t>2881.81</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2718.03</t>
+          <t>2898.47</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2624.24</t>
+          <t>2661.44</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2227.74</t>
+          <t>2700.20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>455.48</t>
+          <t>669.63</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1869.92</t>
+          <t>2268.65</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1554.80</t>
+          <t>1871.92</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1546.79</t>
+          <t>1863.72</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1791.41</t>
+          <t>1853.15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1782.03</t>
+          <t>1866.30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3373.63</t>
+          <t>3465.55</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2796.78</t>
+          <t>3359.87</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2921.64</t>
+          <t>2942.27</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2307.86</t>
+          <t>2794.46</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1808.25</t>
+          <t>2187.89</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1797.54</t>
+          <t>2173.28</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2124.48</t>
+          <t>2152.53</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2116.57</t>
+          <t>2137.83</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3404.43</t>
+          <t>3498.60</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2807.50</t>
+          <t>3400.23</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2924.10</t>
+          <t>2951.88</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2323.17</t>
+          <t>2828.34</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1812.70</t>
+          <t>2202.16</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1802.06</t>
+          <t>2187.58</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2140.99</t>
+          <t>2172.31</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2129.27</t>
+          <t>2157.42</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3429.20</t>
+          <t>3525.49</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2812.93</t>
+          <t>3480.59</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2935.99</t>
+          <t>2969.01</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2329.57</t>
+          <t>2854.19</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1818.20</t>
+          <t>2238.51</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1807.66</t>
+          <t>2225.57</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2147.82</t>
+          <t>2205.03</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2134.15</t>
+          <t>2190.27</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3439.80</t>
+          <t>3543.17</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2817.32</t>
+          <t>3446.43</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2952.52</t>
+          <t>2986.83</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2334.29</t>
+          <t>2875.17</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1821.22</t>
+          <t>2228.20</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1810.69</t>
+          <t>2214.66</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2137.09</t>
+          <t>2214.84</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2126.03</t>
+          <t>2202.68</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3437.23</t>
+          <t>3559.12</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2821.18</t>
+          <t>3466.03</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2968.68</t>
+          <t>3006.40</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2338.80</t>
+          <t>2889.84</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1824.01</t>
+          <t>2243.16</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1813.47</t>
+          <t>2230.47</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2148.90</t>
+          <t>2230.01</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2137.71</t>
+          <t>2217.79</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3442.28</t>
+          <t>3575.50</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2657.29</t>
+          <t>3484.31</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2973.71</t>
+          <t>3022.85</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2140.52</t>
+          <t>2901.25</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1828.21</t>
+          <t>2268.19</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1817.64</t>
+          <t>2256.92</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2160.65</t>
+          <t>2215.12</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2149.44</t>
+          <t>2203.55</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3418.95</t>
+          <t>3598.43</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2598.40</t>
+          <t>3510.84</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2994.30</t>
+          <t>3043.57</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2066.42</t>
+          <t>2919.37</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1839.05</t>
+          <t>2284.86</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1828.54</t>
+          <t>2273.65</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2177.59</t>
+          <t>2234.59</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2166.41</t>
+          <t>2223.10</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3593.28</t>
+          <t>3697.06</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2694.23</t>
+          <t>3644.98</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>3085.27</t>
+          <t>3135.21</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2129.88</t>
+          <t>2985.33</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1914.12</t>
+          <t>2373.37</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1903.59</t>
+          <t>2362.12</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2279.21</t>
+          <t>2338.55</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2267.83</t>
+          <t>2325.35</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4510.33</t>
+          <t>4571.27</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3615.08</t>
+          <t>4198.26</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3844.41</t>
+          <t>3787.02</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2696.10</t>
+          <t>3558.34</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2068.75</t>
+          <t>2703.94</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2047.78</t>
+          <t>2677.91</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2852.75</t>
+          <t>2921.48</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2857.42</t>
+          <t>2928.92</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1686.31</t>
+          <t>2319.23</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>135.80</t>
+          <t>2440.15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>35.72</t>
+          <t>624.42</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>134.82</t>
+          <t>2047.14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>146.36</t>
+          <t>1626.06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>146.07</t>
+          <t>1625.90</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1065.61</t>
+          <t>1521.80</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1085.54</t>
+          <t>1566.29</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2276.35</t>
+          <t>2969.95</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2265.75</t>
+          <t>3076.79</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1928.40</t>
+          <t>2577.44</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>254.48</t>
+          <t>2563.75</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1419.08</t>
+          <t>1900.15</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1110.24</t>
+          <t>1888.11</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1299.22</t>
+          <t>1778.86</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1297.75</t>
+          <t>1779.38</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2285.43</t>
+          <t>2991.85</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2300.14</t>
+          <t>3108.43</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1857.29</t>
+          <t>2566.81</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1468.59</t>
+          <t>2599.03</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1417.98</t>
+          <t>1914.89</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1409.46</t>
+          <t>1903.54</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1302.23</t>
+          <t>1777.87</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1295.74</t>
+          <t>1777.81</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2297.91</t>
+          <t>3022.75</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2316.43</t>
+          <t>3140.93</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1848.76</t>
+          <t>2594.13</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1431.05</t>
+          <t>2629.82</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1426.06</t>
+          <t>1936.35</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1417.59</t>
+          <t>1925.09</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1313.45</t>
+          <t>1794.76</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1305.66</t>
+          <t>1789.21</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2308.96</t>
+          <t>3047.78</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2324.20</t>
+          <t>3167.62</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1856.62</t>
+          <t>2615.63</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1030.89</t>
+          <t>2654.76</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1432.70</t>
+          <t>1950.05</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1424.23</t>
+          <t>1938.85</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1322.52</t>
+          <t>1814.85</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1315.79</t>
+          <t>1803.98</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2318.47</t>
+          <t>3069.09</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2328.70</t>
+          <t>3189.33</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1860.01</t>
+          <t>2640.44</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>491.50</t>
+          <t>2679.02</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1438.71</t>
+          <t>1962.88</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1359.26</t>
+          <t>1951.68</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1330.39</t>
+          <t>1831.76</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1324.15</t>
+          <t>1821.71</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2327.62</t>
+          <t>3088.87</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2333.12</t>
+          <t>3208.48</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1864.01</t>
+          <t>2658.36</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>309.08</t>
+          <t>2699.80</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1107.82</t>
+          <t>1974.23</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>788.71</t>
+          <t>1963.08</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1338.04</t>
+          <t>1847.81</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1331.15</t>
+          <t>1837.80</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2342.21</t>
+          <t>3114.04</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>1813.02</t>
+          <t>3232.47</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1874.07</t>
+          <t>2683.40</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>275.64</t>
+          <t>2721.85</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>519.52</t>
+          <t>1991.64</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>447.99</t>
+          <t>1980.56</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1350.58</t>
+          <t>1870.06</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1343.16</t>
+          <t>1860.13</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2434.06</t>
+          <t>3221.49</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2053.59</t>
+          <t>3340.14</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1949.19</t>
+          <t>2751.79</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>323.91</t>
+          <t>2790.06</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>706.00</t>
+          <t>2080.37</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>436.36</t>
+          <t>2069.33</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1422.65</t>
+          <t>1961.92</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1416.49</t>
+          <t>1951.20</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2881.90</t>
+          <t>3548.11</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2581.92</t>
+          <t>3808.83</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2353.40</t>
+          <t>3259.43</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>1679.62</t>
+          <t>3260.65</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1823.24</t>
+          <t>2415.86</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1801.10</t>
+          <t>2389.53</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1754.32</t>
+          <t>2414.33</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1755.41</t>
+          <t>2418.38</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2658.21</t>
+          <t>2691.00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2497.75</t>
+          <t>2758.52</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1123.10</t>
+          <t>1582.41</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2115.41</t>
+          <t>2347.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1728.56</t>
+          <t>1907.42</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1721.36</t>
+          <t>1899.01</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1791.41</t>
+          <t>1883.15</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1782.03</t>
+          <t>1866.30</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3405.36</t>
+          <t>3489.15</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3104.51</t>
+          <t>3432.94</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2921.64</t>
+          <t>2983.89</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2580.99</t>
+          <t>2872.68</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1995.02</t>
+          <t>2221.51</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1985.02</t>
+          <t>2212.23</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2124.48</t>
+          <t>2157.20</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2116.57</t>
+          <t>2143.51</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3421.45</t>
+          <t>3527.84</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3106.15</t>
+          <t>3458.86</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2924.10</t>
+          <t>2951.88</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2586.77</t>
+          <t>2901.64</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1994.16</t>
+          <t>2238.54</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1984.07</t>
+          <t>2226.77</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2140.99</t>
+          <t>2178.91</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2129.27</t>
+          <t>2172.78</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3436.55</t>
+          <t>3555.29</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3071.08</t>
+          <t>3480.59</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2935.99</t>
+          <t>2970.17</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2587.40</t>
+          <t>2922.45</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1999.10</t>
+          <t>2259.06</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1988.88</t>
+          <t>2247.79</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2147.82</t>
+          <t>2205.03</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2134.15</t>
+          <t>2190.27</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3448.27</t>
+          <t>3571.89</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3105.91</t>
+          <t>3498.08</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2952.52</t>
+          <t>2986.83</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2588.67</t>
+          <t>2932.10</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1972.07</t>
+          <t>2272.55</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1990.45</t>
+          <t>2261.43</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2137.09</t>
+          <t>2214.84</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2126.03</t>
+          <t>2202.68</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3462.51</t>
+          <t>3588.52</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3112.49</t>
+          <t>3511.21</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2968.68</t>
+          <t>3006.40</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2603.05</t>
+          <t>2947.37</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1958.60</t>
+          <t>2288.55</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1955.56</t>
+          <t>2277.63</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2148.90</t>
+          <t>2230.01</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2137.71</t>
+          <t>2217.79</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3473.08</t>
+          <t>3601.42</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3106.78</t>
+          <t>3527.37</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2973.71</t>
+          <t>3023.57</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2614.35</t>
+          <t>2963.73</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1952.74</t>
+          <t>2300.96</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1959.38</t>
+          <t>2289.99</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2160.65</t>
+          <t>2215.12</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2149.44</t>
+          <t>2203.55</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3492.47</t>
+          <t>3622.60</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3119.65</t>
+          <t>3550.06</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2994.30</t>
+          <t>3045.33</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2634.39</t>
+          <t>2985.70</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1958.91</t>
+          <t>2320.87</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1960.15</t>
+          <t>2309.58</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2177.59</t>
+          <t>2234.59</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2166.41</t>
+          <t>2223.10</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3611.90</t>
+          <t>3751.52</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3194.30</t>
+          <t>3668.27</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3085.27</t>
+          <t>3135.21</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2692.82</t>
+          <t>3070.00</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2040.98</t>
+          <t>2418.44</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2034.42</t>
+          <t>2407.58</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2279.21</t>
+          <t>2338.55</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2267.83</t>
+          <t>2325.35</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4510.33</t>
+          <t>4587.03</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3870.52</t>
+          <t>4414.86</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3844.41</t>
+          <t>3832.61</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3361.94</t>
+          <t>3640.77</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2472.99</t>
+          <t>2762.45</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2463.79</t>
+          <t>2731.24</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2852.75</t>
+          <t>2921.48</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2857.42</t>
+          <t>2928.92</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_NewYorkTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_NewYorkTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2653.73</t>
+          <t>2755.42</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2655.41</t>
+          <t>2291.48</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>737.85</t>
+          <t>1024.68</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2236.20</t>
+          <t>1861.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1828.40</t>
+          <t>1476.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1816.51</t>
+          <t>1470.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1872.34</t>
+          <t>1940.30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1859.80</t>
+          <t>1905.26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3362.48</t>
+          <t>3501.10</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3376.04</t>
+          <t>2972.70</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2929.54</t>
+          <t>3050.23</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2794.74</t>
+          <t>2520.77</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2165.60</t>
+          <t>1954.24</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2153.53</t>
+          <t>1938.15</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2157.20</t>
+          <t>2211.77</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2143.51</t>
+          <t>2180.88</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3402.03</t>
+          <t>3514.20</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3418.92</t>
+          <t>2983.84</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2919.57</t>
+          <t>3029.40</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2829.70</t>
+          <t>2423.95</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2186.40</t>
+          <t>1962.00</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2173.75</t>
+          <t>1765.72</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2178.91</t>
+          <t>2234.42</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2172.78</t>
+          <t>2230.58</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3424.07</t>
+          <t>3527.04</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3435.48</t>
+          <t>2992.96</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2922.79</t>
+          <t>3043.59</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2855.59</t>
+          <t>2406.22</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2201.82</t>
+          <t>1786.37</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2189.10</t>
+          <t>1774.93</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2196.55</t>
+          <t>2242.68</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2188.06</t>
+          <t>2234.19</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3445.92</t>
+          <t>3536.85</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3448.29</t>
+          <t>2996.86</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2939.70</t>
+          <t>3067.74</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2874.93</t>
+          <t>2411.10</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2212.77</t>
+          <t>1876.40</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2200.07</t>
+          <t>1861.14</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2171.64</t>
+          <t>2246.36</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2190.88</t>
+          <t>2238.48</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3465.38</t>
+          <t>3547.39</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3460.03</t>
+          <t>3114.59</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2952.91</t>
+          <t>3102.61</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2889.31</t>
+          <t>2417.11</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2221.88</t>
+          <t>1990.59</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2209.24</t>
+          <t>1977.73</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2187.06</t>
+          <t>2269.81</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2175.95</t>
+          <t>2258.29</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3484.14</t>
+          <t>3556.54</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3471.70</t>
+          <t>2979.00</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2974.37</t>
+          <t>3113.14</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2903.70</t>
+          <t>2404.92</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2235.56</t>
+          <t>1992.29</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2222.90</t>
+          <t>1980.39</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2188.76</t>
+          <t>2268.13</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2177.67</t>
+          <t>2260.52</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3480.88</t>
+          <t>3571.76</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3488.51</t>
+          <t>2989.64</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2994.47</t>
+          <t>3131.44</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2923.30</t>
+          <t>2416.01</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2256.34</t>
+          <t>1890.41</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2243.81</t>
+          <t>1874.65</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2207.72</t>
+          <t>2276.29</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2196.54</t>
+          <t>2271.89</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3588.48</t>
+          <t>3678.41</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3592.82</t>
+          <t>3088.55</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>3063.10</t>
+          <t>3171.17</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2987.05</t>
+          <t>2475.80</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2363.19</t>
+          <t>1967.91</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2350.76</t>
+          <t>1951.25</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2301.32</t>
+          <t>2356.21</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2290.55</t>
+          <t>2347.06</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>4375.36</t>
+          <t>4504.66</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>4145.99</t>
+          <t>3712.90</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3727.93</t>
+          <t>3816.31</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>3470.15</t>
+          <t>2980.21</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2712.28</t>
+          <t>2262.77</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2685.91</t>
+          <t>2238.78</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2847.54</t>
+          <t>2904.59</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2853.35</t>
+          <t>2922.75</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2691.00</t>
+          <t>2769.54</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2652.66</t>
+          <t>2274.35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>717.70</t>
+          <t>810.06</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2261.90</t>
+          <t>2076.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1876.51</t>
+          <t>1719.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1867.50</t>
+          <t>1707.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1808.71</t>
+          <t>1898.61</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1803.38</t>
+          <t>1900.77</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3489.15</t>
+          <t>3543.65</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3375.85</t>
+          <t>2903.38</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2911.05</t>
+          <t>2957.89</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2804.34</t>
+          <t>2580.35</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2167.81</t>
+          <t>2006.55</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2156.15</t>
+          <t>1989.36</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2120.62</t>
+          <t>2197.14</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2108.82</t>
+          <t>2191.37</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3527.84</t>
+          <t>3563.86</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3405.10</t>
+          <t>2933.87</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2933.39</t>
+          <t>2951.67</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2852.55</t>
+          <t>2601.17</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>2187.89</t>
+          <t>2013.27</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2181.19</t>
+          <t>1995.74</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2139.45</t>
+          <t>2197.89</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2127.02</t>
+          <t>2201.34</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3555.29</t>
+          <t>3572.69</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>3427.58</t>
+          <t>2953.54</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2958.81</t>
+          <t>2965.42</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2874.15</t>
+          <t>2612.11</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2209.32</t>
+          <t>2019.22</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2193.44</t>
+          <t>2001.61</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>2153.01</t>
+          <t>2209.24</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2140.91</t>
+          <t>2198.87</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3571.89</t>
+          <t>3585.28</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3443.14</t>
+          <t>2966.10</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2983.25</t>
+          <t>3000.66</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2892.02</t>
+          <t>2618.55</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2217.33</t>
+          <t>2021.04</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2203.84</t>
+          <t>2003.39</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2164.09</t>
+          <t>2218.65</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2153.85</t>
+          <t>2207.83</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3588.52</t>
+          <t>3609.28</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3456.89</t>
+          <t>2975.61</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2999.53</t>
+          <t>3002.38</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2901.81</t>
+          <t>2625.06</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2221.50</t>
+          <t>2023.74</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2211.53</t>
+          <t>2006.27</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>2176.79</t>
+          <t>2225.35</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2166.52</t>
+          <t>2215.39</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3601.42</t>
+          <t>3621.17</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3471.89</t>
+          <t>2980.06</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>3008.56</t>
+          <t>3019.04</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2915.19</t>
+          <t>2584.49</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2242.20</t>
+          <t>2028.27</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2228.38</t>
+          <t>1987.26</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>2189.32</t>
+          <t>2235.79</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>2178.73</t>
+          <t>2224.71</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3622.60</t>
+          <t>3638.38</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3496.02</t>
+          <t>3112.36</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>3030.50</t>
+          <t>3040.17</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2934.92</t>
+          <t>2594.05</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2261.66</t>
+          <t>2011.02</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2252.81</t>
+          <t>2000.44</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>2201.70</t>
+          <t>2251.55</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>2197.31</t>
+          <t>2241.19</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3751.52</t>
+          <t>3769.54</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3627.28</t>
+          <t>3317.91</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>3093.08</t>
+          <t>3103.43</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>3006.09</t>
+          <t>2658.45</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2373.89</t>
+          <t>2103.32</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2360.40</t>
+          <t>2092.71</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>2294.56</t>
+          <t>2340.83</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>2283.88</t>
+          <t>2330.80</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4587.03</t>
+          <t>4627.07</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>4266.95</t>
+          <t>3527.01</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3769.49</t>
+          <t>3806.15</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3598.39</t>
+          <t>2900.25</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2727.78</t>
+          <t>2207.43</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2702.29</t>
+          <t>2188.33</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2871.92</t>
+          <t>2890.08</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2875.64</t>
+          <t>2909.50</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2639.58</t>
+          <t>2673.29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2706.92</t>
+          <t>2778.68</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>624.42</t>
+          <t>630.11</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2273.44</t>
+          <t>2314.57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1866.11</t>
+          <t>1898.75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1855.40</t>
+          <t>1887.82</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1833.52</t>
+          <t>1794.66</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1823.67</t>
+          <t>1788.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3354.19</t>
+          <t>3386.08</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3432.94</t>
+          <t>3324.32</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2906.77</t>
+          <t>2886.25</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2832.23</t>
+          <t>2729.67</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2194.00</t>
+          <t>2044.38</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2182.58</t>
+          <t>2038.59</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2152.22</t>
+          <t>2079.14</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2142.40</t>
+          <t>2066.99</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3387.07</t>
+          <t>3418.16</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3458.86</t>
+          <t>3387.18</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2910.78</t>
+          <t>2912.23</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2871.48</t>
+          <t>2806.16</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2209.19</t>
+          <t>2084.17</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2197.83</t>
+          <t>2071.26</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2165.89</t>
+          <t>2094.60</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2156.34</t>
+          <t>2081.27</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3411.32</t>
+          <t>3431.18</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3479.09</t>
+          <t>3419.32</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2929.39</t>
+          <t>2936.55</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2894.37</t>
+          <t>2843.90</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2225.91</t>
+          <t>2285.85</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2206.44</t>
+          <t>2272.14</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2169.62</t>
+          <t>2116.36</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2158.67</t>
+          <t>2104.85</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3427.90</t>
+          <t>3434.07</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3498.08</t>
+          <t>3470.02</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2942.06</t>
+          <t>2952.03</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2911.85</t>
+          <t>2978.75</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2228.30</t>
+          <t>2296.15</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2214.38</t>
+          <t>2281.38</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>2110.99</t>
+          <t>2155.46</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2099.49</t>
+          <t>2143.54</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3445.18</t>
+          <t>3446.12</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3511.21</t>
+          <t>3497.28</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2955.91</t>
+          <t>2969.39</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2929.50</t>
+          <t>2997.10</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2244.14</t>
+          <t>2303.86</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2230.03</t>
+          <t>2289.08</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>2118.82</t>
+          <t>2162.44</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>2107.50</t>
+          <t>2150.32</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3462.17</t>
+          <t>3458.01</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3527.37</t>
+          <t>3558.60</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2965.00</t>
+          <t>2989.35</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2942.98</t>
+          <t>3010.84</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2259.79</t>
+          <t>2312.24</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2249.04</t>
+          <t>2298.59</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>2125.26</t>
+          <t>2172.70</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>2113.66</t>
+          <t>2160.16</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3482.10</t>
+          <t>3476.16</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3548.14</t>
+          <t>3579.22</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2987.45</t>
+          <t>3008.88</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2970.57</t>
+          <t>3030.64</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2286.93</t>
+          <t>2328.46</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2272.73</t>
+          <t>2314.97</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>2139.71</t>
+          <t>2188.33</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>2140.03</t>
+          <t>2175.73</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3589.23</t>
+          <t>3590.38</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3661.54</t>
+          <t>3685.49</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>3073.15</t>
+          <t>3063.94</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>3036.33</t>
+          <t>3093.01</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2391.88</t>
+          <t>2434.57</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2377.75</t>
+          <t>2421.02</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2253.26</t>
+          <t>2290.97</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>2239.15</t>
+          <t>2278.36</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4364.44</t>
+          <t>4388.32</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>4414.86</t>
+          <t>4174.97</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3725.63</t>
+          <t>3749.71</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3593.25</t>
+          <t>3544.81</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2762.45</t>
+          <t>2791.98</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2731.24</t>
+          <t>2765.52</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2830.77</t>
+          <t>2835.52</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2838.48</t>
+          <t>2849.80</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2523.05</t>
+          <t>2518.03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2685.42</t>
+          <t>2614.30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>738.28</t>
+          <t>371.07</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2311.97</t>
+          <t>2185.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1862.50</t>
+          <t>1781.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1854.39</t>
+          <t>1769.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1776.35</t>
+          <t>1670.67</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1773.61</t>
+          <t>1669.23</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3249.24</t>
+          <t>3288.97</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3376.83</t>
+          <t>3371.48</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2834.83</t>
+          <t>2809.59</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2841.40</t>
+          <t>2759.12</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2158.12</t>
+          <t>2096.20</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2147.32</t>
+          <t>2204.25</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2010.53</t>
+          <t>1967.86</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2001.76</t>
+          <t>1960.97</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>3300.24</t>
+          <t>3330.28</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3418.65</t>
+          <t>3410.53</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2828.29</t>
+          <t>2810.80</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2870.14</t>
+          <t>2802.30</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2171.60</t>
+          <t>2228.73</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2160.84</t>
+          <t>2216.18</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025.37</t>
+          <t>1988.59</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2015.95</t>
+          <t>1977.49</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3308.21</t>
+          <t>3357.73</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3455.93</t>
+          <t>3438.69</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2839.85</t>
+          <t>2828.37</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2906.93</t>
+          <t>2848.95</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2186.25</t>
+          <t>2241.84</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2175.48</t>
+          <t>2229.21</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>2039.48</t>
+          <t>2005.34</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2030.57</t>
+          <t>1993.07</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>3324.48</t>
+          <t>3375.01</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3482.28</t>
+          <t>3460.01</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2869.49</t>
+          <t>2844.06</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2916.66</t>
+          <t>2865.23</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2210.51</t>
+          <t>2253.56</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2200.06</t>
+          <t>2240.91</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>2072.34</t>
+          <t>2126.68</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2061.49</t>
+          <t>2115.30</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3290.54</t>
+          <t>3393.47</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3497.75</t>
+          <t>3478.75</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2906.37</t>
+          <t>2862.62</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2923.57</t>
+          <t>2884.13</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2218.37</t>
+          <t>2263.88</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2207.93</t>
+          <t>2251.26</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>2057.52</t>
+          <t>2135.99</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2069.27</t>
+          <t>2124.48</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3305.34</t>
+          <t>3410.57</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3514.36</t>
+          <t>3495.74</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2918.01</t>
+          <t>2875.28</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2941.42</t>
+          <t>2899.49</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2224.76</t>
+          <t>2273.90</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2217.48</t>
+          <t>2261.29</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2065.78</t>
+          <t>2146.05</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>2058.03</t>
+          <t>2134.51</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3327.52</t>
+          <t>3433.13</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3535.76</t>
+          <t>3518.10</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2935.83</t>
+          <t>2899.79</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2978.93</t>
+          <t>2918.80</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2241.89</t>
+          <t>2289.44</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2231.90</t>
+          <t>2276.88</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2081.62</t>
+          <t>2161.75</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2074.98</t>
+          <t>2149.03</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3407.13</t>
+          <t>3555.76</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3645.65</t>
+          <t>3641.94</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>3000.36</t>
+          <t>2958.94</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>3040.10</t>
+          <t>2975.15</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2329.36</t>
+          <t>2373.61</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2319.88</t>
+          <t>2360.73</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2173.18</t>
+          <t>2248.26</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2165.75</t>
+          <t>2235.66</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>4180.06</t>
+          <t>4257.40</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>4214.55</t>
+          <t>4214.05</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3585.58</t>
+          <t>3528.21</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3632.05</t>
+          <t>3349.72</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2716.54</t>
+          <t>2657.29</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2690.21</t>
+          <t>2508.88</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2655.74</t>
+          <t>2641.28</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2667.93</t>
+          <t>2641.77</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2540.97</t>
+          <t>2210.14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2664.74</t>
+          <t>2323.67</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>694.76</t>
+          <t>212.44</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2313.10</t>
+          <t>1939.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1864.32</t>
+          <t>1560.30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1856.10</t>
+          <t>1553.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1692.18</t>
+          <t>1448.95</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1690.77</t>
+          <t>1457.10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3198.21</t>
+          <t>2885.07</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3349.95</t>
+          <t>2996.60</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2832.50</t>
+          <t>2487.60</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2843.46</t>
+          <t>2460.87</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2134.74</t>
+          <t>1852.40</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2123.37</t>
+          <t>1843.11</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1996.61</t>
+          <t>1715.49</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1982.37</t>
+          <t>1712.85</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>3219.46</t>
+          <t>2909.83</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3371.39</t>
+          <t>3022.68</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2830.70</t>
+          <t>2462.05</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2887.93</t>
+          <t>2492.46</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2148.24</t>
+          <t>1868.63</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2135.55</t>
+          <t>1859.37</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2006.86</t>
+          <t>1732.67</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1996.54</t>
+          <t>1725.55</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>3242.08</t>
+          <t>2930.14</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3394.45</t>
+          <t>3042.68</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2847.79</t>
+          <t>2474.46</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2914.37</t>
+          <t>2512.57</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2164.39</t>
+          <t>1883.08</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2151.63</t>
+          <t>1873.85</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>2027.70</t>
+          <t>1747.08</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2011.52</t>
+          <t>1738.96</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>3262.65</t>
+          <t>2946.75</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3414.47</t>
+          <t>3058.65</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2863.85</t>
+          <t>2489.62</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2932.10</t>
+          <t>2528.06</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2179.79</t>
+          <t>1894.51</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2168.45</t>
+          <t>1885.38</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>2027.44</t>
+          <t>1758.41</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>2019.49</t>
+          <t>1749.94</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>3280.64</t>
+          <t>2960.86</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3429.06</t>
+          <t>3072.14</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2878.96</t>
+          <t>2503.16</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2947.01</t>
+          <t>2543.41</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2198.75</t>
+          <t>1904.22</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2187.37</t>
+          <t>1894.95</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>2047.06</t>
+          <t>1767.96</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>2035.42</t>
+          <t>1759.25</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>3297.70</t>
+          <t>2974.14</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3445.56</t>
+          <t>3084.98</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2894.03</t>
+          <t>2516.28</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2961.73</t>
+          <t>2556.01</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2221.59</t>
+          <t>1913.66</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2206.54</t>
+          <t>1904.47</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>2074.51</t>
+          <t>1777.42</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>2063.50</t>
+          <t>1768.51</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>3321.22</t>
+          <t>2993.28</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3467.48</t>
+          <t>3103.81</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2914.30</t>
+          <t>2534.87</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2981.83</t>
+          <t>2574.03</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2245.93</t>
+          <t>1929.75</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2230.75</t>
+          <t>1920.47</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2093.77</t>
+          <t>1793.05</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2082.77</t>
+          <t>1784.26</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3421.57</t>
+          <t>3099.49</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3570.45</t>
+          <t>3212.19</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2979.42</t>
+          <t>2600.48</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>3044.01</t>
+          <t>2639.45</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2352.98</t>
+          <t>2021.51</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2341.94</t>
+          <t>2012.39</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2183.98</t>
+          <t>1883.18</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2172.65</t>
+          <t>1874.54</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>4053.23</t>
+          <t>3654.90</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>4169.17</t>
+          <t>3711.26</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3582.05</t>
+          <t>3073.72</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3613.68</t>
+          <t>3100.31</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2703.56</t>
+          <t>2370.54</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2680.74</t>
+          <t>2344.92</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2630.96</t>
+          <t>2302.52</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2637.13</t>
+          <t>2305.50</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2462.63</t>
+          <t>2096.59</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2614.81</t>
+          <t>2223.89</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>852.97</t>
+          <t>482.24</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2200.23</t>
+          <t>1857.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1790.83</t>
+          <t>1494.60</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1782.57</t>
+          <t>1487.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1656.24</t>
+          <t>1373.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1651.03</t>
+          <t>1390.83</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3107.20</t>
+          <t>2724.43</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3238.86</t>
+          <t>2848.06</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2684.46</t>
+          <t>2378.83</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2721.54</t>
+          <t>2340.37</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2090.28</t>
+          <t>1765.95</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2079.23</t>
+          <t>1756.43</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1907.21</t>
+          <t>1618.65</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1897.01</t>
+          <t>1616.41</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3133.86</t>
+          <t>2707.48</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3265.83</t>
+          <t>2830.14</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2695.34</t>
+          <t>2287.45</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2749.83</t>
+          <t>2333.55</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2105.34</t>
+          <t>1754.19</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2094.34</t>
+          <t>1744.71</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1923.42</t>
+          <t>1610.02</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1911.09</t>
+          <t>1602.12</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3161.15</t>
+          <t>2717.22</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3292.37</t>
+          <t>2839.31</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2718.70</t>
+          <t>2290.36</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2773.41</t>
+          <t>2343.41</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2122.56</t>
+          <t>1761.05</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2111.59</t>
+          <t>1751.58</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1941.89</t>
+          <t>1617.70</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1929.25</t>
+          <t>1608.75</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>3184.62</t>
+          <t>2725.65</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3315.14</t>
+          <t>2847.10</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2739.85</t>
+          <t>2298.67</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2793.47</t>
+          <t>2351.65</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2137.54</t>
+          <t>1767.07</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>2126.60</t>
+          <t>1757.61</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1958.12</t>
+          <t>1624.27</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1945.45</t>
+          <t>1615.12</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>3204.96</t>
+          <t>2732.95</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3334.91</t>
+          <t>2853.80</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2758.18</t>
+          <t>2306.68</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2813.84</t>
+          <t>2361.11</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>2141.38</t>
+          <t>1772.42</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>2128.88</t>
+          <t>1762.94</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1972.07</t>
+          <t>1630.00</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1961.07</t>
+          <t>1620.83</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>3223.86</t>
+          <t>2702.56</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3353.32</t>
+          <t>2820.72</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2775.27</t>
+          <t>2283.67</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2830.29</t>
+          <t>2335.85</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>2156.12</t>
+          <t>1754.39</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2143.62</t>
+          <t>1744.88</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1975.14</t>
+          <t>1613.41</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1964.21</t>
+          <t>1604.12</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>3247.61</t>
+          <t>2715.59</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3376.82</t>
+          <t>2833.22</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2796.89</t>
+          <t>2296.80</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2851.44</t>
+          <t>2348.43</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>2178.12</t>
+          <t>1766.15</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>2165.67</t>
+          <t>1756.70</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1994.32</t>
+          <t>1625.20</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1983.42</t>
+          <t>1616.20</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>3351.89</t>
+          <t>2809.48</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3478.68</t>
+          <t>2929.23</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2859.22</t>
+          <t>2353.66</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2910.29</t>
+          <t>2405.42</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2281.95</t>
+          <t>1849.38</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2269.36</t>
+          <t>1839.91</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>2090.90</t>
+          <t>1706.37</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>2078.30</t>
+          <t>1697.04</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3835.42</t>
+          <t>3277.22</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3947.63</t>
+          <t>3369.68</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>3318.38</t>
+          <t>2844.73</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>3354.51</t>
+          <t>2890.81</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2594.61</t>
+          <t>2161.83</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2569.45</t>
+          <t>2138.49</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2546.32</t>
+          <t>2082.22</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2548.42</t>
+          <t>2084.33</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2427.91</t>
+          <t>1861.98</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2511.10</t>
+          <t>1946.74</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1104.59</t>
+          <t>494.74</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2165.13</t>
+          <t>1665.16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1773.02</t>
+          <t>1313.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1765.04</t>
+          <t>1310.31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1673.98</t>
+          <t>1223.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1671.05</t>
+          <t>1247.48</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3027.66</t>
+          <t>2393.42</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>3114.67</t>
+          <t>2492.16</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2643.00</t>
+          <t>2182.61</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2639.11</t>
+          <t>2081.97</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2041.55</t>
+          <t>1519.49</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2030.99</t>
+          <t>1513.66</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1910.26</t>
+          <t>1442.25</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1902.51</t>
+          <t>1460.02</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>3052.63</t>
+          <t>2388.93</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>3138.45</t>
+          <t>2488.08</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2642.10</t>
+          <t>2053.61</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2662.92</t>
+          <t>2067.84</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2051.23</t>
+          <t>1515.44</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2040.73</t>
+          <t>1510.23</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1923.87</t>
+          <t>1439.27</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1913.42</t>
+          <t>1442.11</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>3079.34</t>
+          <t>2394.88</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>3161.53</t>
+          <t>2489.89</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2662.84</t>
+          <t>2057.64</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2684.96</t>
+          <t>2076.72</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2066.59</t>
+          <t>1522.14</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2056.13</t>
+          <t>1516.81</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1940.73</t>
+          <t>1436.83</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1930.03</t>
+          <t>1441.98</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>3102.47</t>
+          <t>2401.35</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>3182.73</t>
+          <t>2495.96</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2683.43</t>
+          <t>2063.70</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2703.84</t>
+          <t>2084.59</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2080.20</t>
+          <t>1528.78</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2069.77</t>
+          <t>1523.38</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1955.43</t>
+          <t>1431.80</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1944.71</t>
+          <t>1444.92</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>3122.55</t>
+          <t>2407.35</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>3201.13</t>
+          <t>2501.61</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2701.39</t>
+          <t>2070.79</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2723.03</t>
+          <t>2093.20</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>2092.05</t>
+          <t>1534.80</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>2081.65</t>
+          <t>1529.36</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1968.24</t>
+          <t>1433.49</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1957.53</t>
+          <t>1440.95</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>3141.23</t>
+          <t>2413.61</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>3218.30</t>
+          <t>2507.58</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2718.17</t>
+          <t>2078.59</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2738.56</t>
+          <t>2100.46</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2103.50</t>
+          <t>1541.06</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2093.12</t>
+          <t>1535.58</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1980.52</t>
+          <t>1440.41</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1969.82</t>
+          <t>1438.56</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>3164.99</t>
+          <t>2425.41</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>3240.60</t>
+          <t>2519.29</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2739.66</t>
+          <t>2091.44</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2758.80</t>
+          <t>2112.70</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>2120.89</t>
+          <t>1552.82</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>2110.56</t>
+          <t>1547.33</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1998.86</t>
+          <t>1452.85</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1988.21</t>
+          <t>1443.46</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>3262.24</t>
+          <t>2511.59</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3340.23</t>
+          <t>2607.02</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2801.00</t>
+          <t>2146.74</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2815.85</t>
+          <t>2167.92</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2209.07</t>
+          <t>1625.31</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>2198.70</t>
+          <t>1619.88</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>2086.98</t>
+          <t>1526.03</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>2076.28</t>
+          <t>1519.19</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3766.23</t>
+          <t>2917.21</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3808.83</t>
+          <t>3086.99</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>3275.44</t>
+          <t>2567.02</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>3260.65</t>
+          <t>2595.64</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2493.61</t>
+          <t>1921.63</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2470.10</t>
+          <t>1917.96</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2497.82</t>
+          <t>1896.87</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2500.36</t>
+          <t>1904.48</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2319.23</t>
+          <t>1941.02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2440.15</t>
+          <t>2023.47</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1332.66</t>
+          <t>738.40</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2047.14</t>
+          <t>1674.96</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1626.06</t>
+          <t>1355.10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1625.90</t>
+          <t>1347.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1521.80</t>
+          <t>1261.12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1566.29</t>
+          <t>1268.38</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2969.95</t>
+          <t>2528.18</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3076.79</t>
+          <t>2567.79</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2577.44</t>
+          <t>2196.24</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2563.75</t>
+          <t>2090.69</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1900.15</t>
+          <t>1603.80</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1888.11</t>
+          <t>1593.37</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1778.86</t>
+          <t>1490.39</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1779.38</t>
+          <t>1487.16</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2991.85</t>
+          <t>2526.32</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>3108.43</t>
+          <t>2521.77</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2566.81</t>
+          <t>2122.98</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2599.03</t>
+          <t>2058.92</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1914.89</t>
+          <t>1576.59</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1903.54</t>
+          <t>1566.49</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1777.87</t>
+          <t>1463.75</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1777.81</t>
+          <t>1455.92</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>3022.75</t>
+          <t>2534.27</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>3140.93</t>
+          <t>2522.84</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2594.13</t>
+          <t>2125.22</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2629.82</t>
+          <t>2061.50</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1936.35</t>
+          <t>1580.59</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1925.09</t>
+          <t>1570.92</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1794.76</t>
+          <t>1461.86</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1789.21</t>
+          <t>1457.25</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>3047.78</t>
+          <t>2543.27</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>3167.62</t>
+          <t>2524.47</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2615.63</t>
+          <t>2115.87</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2654.76</t>
+          <t>2063.11</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1950.05</t>
+          <t>1582.44</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1938.85</t>
+          <t>1573.49</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1814.85</t>
+          <t>1466.43</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1803.98</t>
+          <t>1457.64</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>3069.09</t>
+          <t>2551.38</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>3189.33</t>
+          <t>2526.81</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2640.44</t>
+          <t>2121.51</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2679.02</t>
+          <t>2067.06</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1962.88</t>
+          <t>1583.24</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1951.68</t>
+          <t>1574.10</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1831.76</t>
+          <t>1472.43</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1821.71</t>
+          <t>1463.56</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>3088.87</t>
+          <t>2559.51</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>3208.48</t>
+          <t>2530.46</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2658.36</t>
+          <t>2130.68</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2699.80</t>
+          <t>2071.80</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1974.23</t>
+          <t>1585.87</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1963.08</t>
+          <t>1576.53</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1847.81</t>
+          <t>1478.73</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1837.80</t>
+          <t>1469.74</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>3114.04</t>
+          <t>2573.08</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>3232.47</t>
+          <t>2540.47</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2683.40</t>
+          <t>2147.74</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2721.85</t>
+          <t>2080.83</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1991.64</t>
+          <t>1595.38</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1980.56</t>
+          <t>1586.12</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1870.06</t>
+          <t>1490.31</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1860.13</t>
+          <t>1481.29</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>3221.49</t>
+          <t>2662.71</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3340.14</t>
+          <t>2631.56</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2751.79</t>
+          <t>2203.21</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2790.06</t>
+          <t>2135.03</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>2080.37</t>
+          <t>1670.98</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>2069.33</t>
+          <t>1661.82</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1961.92</t>
+          <t>1569.14</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1951.20</t>
+          <t>1560.27</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3548.11</t>
+          <t>3090.30</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3884.70</t>
+          <t>3112.56</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>3259.43</t>
+          <t>2728.49</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>3268.92</t>
+          <t>2658.85</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2415.86</t>
+          <t>1948.27</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2389.53</t>
+          <t>1926.34</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2414.33</t>
+          <t>1984.33</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2418.38</t>
+          <t>1987.76</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2519.47</t>
+          <t>2008.90</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2656.80</t>
+          <t>2031.23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1373.13</t>
+          <t>952.85</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2263.20</t>
+          <t>1676.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1829.90</t>
+          <t>1312.55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1821.45</t>
+          <t>1309.07</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1705.11</t>
+          <t>1289.29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1701.96</t>
+          <t>1356.64</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>3142.44</t>
+          <t>2606.41</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3271.04</t>
+          <t>2528.29</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2746.38</t>
+          <t>2224.90</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2756.22</t>
+          <t>2046.27</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2112.87</t>
+          <t>1515.87</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2100.61</t>
+          <t>1512.44</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1945.61</t>
+          <t>1494.71</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1936.81</t>
+          <t>1497.83</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>3169.50</t>
+          <t>2604.10</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3300.02</t>
+          <t>2475.19</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2716.69</t>
+          <t>2179.52</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2782.94</t>
+          <t>2017.99</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2120.18</t>
+          <t>1512.04</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2107.37</t>
+          <t>1507.51</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1962.15</t>
+          <t>1494.95</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1951.50</t>
+          <t>1489.95</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>3196.61</t>
+          <t>2612.15</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3330.00</t>
+          <t>2473.60</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2726.29</t>
+          <t>2181.45</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2809.45</t>
+          <t>2024.49</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2134.32</t>
+          <t>1517.40</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2123.30</t>
+          <t>1512.77</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1980.26</t>
+          <t>1502.40</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1969.25</t>
+          <t>1495.68</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>3222.64</t>
+          <t>2621.13</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3355.76</t>
+          <t>2473.83</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2740.88</t>
+          <t>2190.59</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2832.26</t>
+          <t>2031.97</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2150.59</t>
+          <t>1523.73</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2139.58</t>
+          <t>1519.06</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1996.54</t>
+          <t>1510.03</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1985.46</t>
+          <t>1502.87</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>3245.25</t>
+          <t>2629.19</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3378.38</t>
+          <t>2474.48</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2758.27</t>
+          <t>2199.86</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2852.91</t>
+          <t>2040.78</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2164.76</t>
+          <t>1529.67</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2153.77</t>
+          <t>1524.99</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>2010.78</t>
+          <t>1516.86</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1999.69</t>
+          <t>1509.60</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>3261.73</t>
+          <t>2637.26</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3399.39</t>
+          <t>2476.05</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2776.05</t>
+          <t>2209.22</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2865.66</t>
+          <t>2054.09</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2178.29</t>
+          <t>1535.91</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2167.31</t>
+          <t>1531.22</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>2024.36</t>
+          <t>1523.84</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>2013.27</t>
+          <t>1516.48</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>3278.45</t>
+          <t>2650.58</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3425.82</t>
+          <t>2483.69</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2810.38</t>
+          <t>2224.93</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2885.08</t>
+          <t>2072.74</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2197.72</t>
+          <t>1547.73</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2186.78</t>
+          <t>1543.02</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2043.88</t>
+          <t>1536.34</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>2032.83</t>
+          <t>1528.95</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3378.51</t>
+          <t>2733.03</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3532.21</t>
+          <t>2586.07</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2874.69</t>
+          <t>2283.52</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2949.40</t>
+          <t>2148.07</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2286.83</t>
+          <t>1622.71</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2275.53</t>
+          <t>1618.18</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2132.13</t>
+          <t>1618.20</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>2121.04</t>
+          <t>1611.04</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3904.82</t>
+          <t>3190.88</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>4023.80</t>
+          <t>3035.81</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3339.19</t>
+          <t>2818.54</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>3428.83</t>
+          <t>2548.45</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2625.06</t>
+          <t>1918.98</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2597.42</t>
+          <t>1896.99</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2571.59</t>
+          <t>2057.20</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2574.11</t>
+          <t>2065.55</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2643.37</t>
+          <t>2454.85</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2736.07</t>
+          <t>2436.57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1582.41</t>
+          <t>1337.81</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2317.38</t>
+          <t>2020.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1888.78</t>
+          <t>1572.16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1880.46</t>
+          <t>1568.42</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1838.98</t>
+          <t>1581.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1850.31</t>
+          <t>1612.47</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3338.05</t>
+          <t>3123.95</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3381.77</t>
+          <t>3067.83</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2916.15</t>
+          <t>2669.07</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2835.87</t>
+          <t>2475.84</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2197.93</t>
+          <t>1820.64</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2184.80</t>
+          <t>1814.08</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2097.52</t>
+          <t>1838.08</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2099.16</t>
+          <t>1836.51</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3358.12</t>
+          <t>3119.82</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3396.77</t>
+          <t>3023.25</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2891.24</t>
+          <t>2619.54</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2851.28</t>
+          <t>2445.30</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2219.74</t>
+          <t>1820.64</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2205.80</t>
+          <t>1810.18</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2106.02</t>
+          <t>1842.14</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2093.15</t>
+          <t>1836.06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3373.58</t>
+          <t>3122.96</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3415.44</t>
+          <t>3036.37</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2916.14</t>
+          <t>2616.21</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2866.75</t>
+          <t>2443.89</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2242.35</t>
+          <t>1831.40</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2181.21</t>
+          <t>1819.35</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2112.52</t>
+          <t>1851.11</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2104.55</t>
+          <t>1843.54</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3390.46</t>
+          <t>3128.73</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3429.99</t>
+          <t>3049.15</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2940.43</t>
+          <t>2619.94</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2881.64</t>
+          <t>2449.89</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2207.83</t>
+          <t>1839.19</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2197.17</t>
+          <t>1828.95</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2124.92</t>
+          <t>1856.29</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2115.38</t>
+          <t>1851.58</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3409.13</t>
+          <t>3135.00</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3444.40</t>
+          <t>3060.41</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2961.61</t>
+          <t>2624.57</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2896.09</t>
+          <t>2461.50</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2222.03</t>
+          <t>1847.23</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2211.39</t>
+          <t>1837.26</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2134.92</t>
+          <t>1858.18</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2127.39</t>
+          <t>1855.38</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3431.14</t>
+          <t>3142.78</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3459.66</t>
+          <t>3071.12</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2981.60</t>
+          <t>2632.15</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2898.99</t>
+          <t>2471.26</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2235.58</t>
+          <t>1855.23</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2224.96</t>
+          <t>1845.07</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2145.35</t>
+          <t>1858.31</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2135.91</t>
+          <t>1857.58</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3457.15</t>
+          <t>3155.07</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3478.45</t>
+          <t>3088.45</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>3006.21</t>
+          <t>2645.89</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2921.74</t>
+          <t>2486.61</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2255.09</t>
+          <t>1871.57</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2244.51</t>
+          <t>1861.94</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2163.89</t>
+          <t>1870.63</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2152.42</t>
+          <t>1862.01</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3560.41</t>
+          <t>3272.93</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3583.74</t>
+          <t>3195.09</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>3083.66</t>
+          <t>2718.65</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2984.46</t>
+          <t>2547.83</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2343.39</t>
+          <t>1959.39</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2332.80</t>
+          <t>1949.37</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2235.34</t>
+          <t>1966.57</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2226.33</t>
+          <t>1957.38</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>4342.90</t>
+          <t>4102.38</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>4205.09</t>
+          <t>3874.03</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3748.85</t>
+          <t>3389.70</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3640.77</t>
+          <t>3091.03</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2727.64</t>
+          <t>2338.01</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2700.92</t>
+          <t>2308.53</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2797.84</t>
+          <t>2539.14</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2810.71</t>
+          <t>2547.31</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2672.69</t>
+          <t>2688.42</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2758.52</t>
+          <t>2502.73</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1324.51</t>
+          <t>1076.38</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2347.81</t>
+          <t>2042.69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1907.42</t>
+          <t>1642.32</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1899.01</t>
+          <t>1633.05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1883.15</t>
+          <t>1751.81</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1849.37</t>
+          <t>1757.34</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3372.39</t>
+          <t>3403.67</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3415.22</t>
+          <t>3188.04</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2983.89</t>
+          <t>2876.32</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2872.68</t>
+          <t>2554.42</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2221.51</t>
+          <t>1937.91</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2212.23</t>
+          <t>1924.36</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2129.08</t>
+          <t>2028.38</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2139.36</t>
+          <t>2024.78</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3385.86</t>
+          <t>3403.40</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3444.48</t>
+          <t>3215.83</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2949.90</t>
+          <t>2844.65</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2901.64</t>
+          <t>2586.25</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2238.54</t>
+          <t>1957.22</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2226.77</t>
+          <t>1945.41</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2146.97</t>
+          <t>2033.06</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2136.85</t>
+          <t>2024.17</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3410.53</t>
+          <t>3413.64</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3467.94</t>
+          <t>3239.64</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2970.17</t>
+          <t>2842.96</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2922.45</t>
+          <t>2606.43</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2259.06</t>
+          <t>1978.07</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2247.79</t>
+          <t>1965.88</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2159.21</t>
+          <t>2047.20</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2152.39</t>
+          <t>2041.03</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3429.11</t>
+          <t>3423.11</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3490.02</t>
+          <t>3258.23</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2984.78</t>
+          <t>2848.33</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2926.49</t>
+          <t>2627.96</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2272.55</t>
+          <t>1996.82</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2261.43</t>
+          <t>1985.62</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2175.29</t>
+          <t>2063.46</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2164.79</t>
+          <t>2049.57</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3447.05</t>
+          <t>3431.63</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3507.23</t>
+          <t>3275.90</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>3005.32</t>
+          <t>2866.44</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2947.37</t>
+          <t>2642.97</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2288.55</t>
+          <t>1989.91</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2277.63</t>
+          <t>1978.66</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2188.45</t>
+          <t>2069.62</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2178.95</t>
+          <t>2063.41</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3464.97</t>
+          <t>3441.16</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3524.82</t>
+          <t>3285.69</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>3023.57</t>
+          <t>2891.66</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2963.73</t>
+          <t>2659.94</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2300.96</t>
+          <t>1987.02</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2289.99</t>
+          <t>1975.56</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2202.12</t>
+          <t>2080.25</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2192.58</t>
+          <t>2070.03</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3487.81</t>
+          <t>3456.35</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3550.06</t>
+          <t>3303.96</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>3045.33</t>
+          <t>2914.48</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2985.70</t>
+          <t>2675.54</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2320.87</t>
+          <t>2000.17</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2309.58</t>
+          <t>1989.26</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2223.69</t>
+          <t>2096.03</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2212.82</t>
+          <t>2088.24</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3589.60</t>
+          <t>3570.50</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3668.27</t>
+          <t>3419.62</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>3109.34</t>
+          <t>2986.90</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>3070.00</t>
+          <t>2739.53</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2418.44</t>
+          <t>2089.23</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2407.58</t>
+          <t>2077.88</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2311.33</t>
+          <t>2184.07</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2298.55</t>
+          <t>2176.16</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4353.24</t>
+          <t>4348.78</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>4244.07</t>
+          <t>4087.21</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3832.61</t>
+          <t>3653.52</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3573.81</t>
+          <t>3278.25</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2756.74</t>
+          <t>2502.35</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2727.05</t>
+          <t>2469.84</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2881.81</t>
+          <t>2710.02</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2898.47</t>
+          <t>2727.27</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2661.44</t>
+          <t>2740.23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2700.20</t>
+          <t>2390.39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>669.63</t>
+          <t>742.53</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2268.65</t>
+          <t>2009.60</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1871.92</t>
+          <t>1652.56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1863.72</t>
+          <t>1645.35</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1853.15</t>
+          <t>1913.76</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1866.30</t>
+          <t>1919.70</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3465.55</t>
+          <t>3529.83</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3359.87</t>
+          <t>3013.19</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2942.27</t>
+          <t>2985.06</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2794.46</t>
+          <t>2491.33</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2187.89</t>
+          <t>1918.57</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2173.28</t>
+          <t>1910.00</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2152.53</t>
+          <t>2200.51</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2137.83</t>
+          <t>2194.79</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3498.60</t>
+          <t>3548.96</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3400.23</t>
+          <t>3035.19</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2951.88</t>
+          <t>2983.53</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2828.34</t>
+          <t>2518.58</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2202.16</t>
+          <t>1914.86</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2187.58</t>
+          <t>1908.21</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2172.31</t>
+          <t>2205.16</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2157.42</t>
+          <t>2197.67</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3525.49</t>
+          <t>3569.94</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3480.59</t>
+          <t>3065.01</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2969.01</t>
+          <t>2995.80</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2854.19</t>
+          <t>2537.89</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2238.51</t>
+          <t>2144.65</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2225.57</t>
+          <t>2135.25</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2205.03</t>
+          <t>2206.96</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2190.27</t>
+          <t>2196.48</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3543.17</t>
+          <t>3587.98</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3446.43</t>
+          <t>3367.94</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2986.83</t>
+          <t>3014.11</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2875.17</t>
+          <t>2558.31</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2228.20</t>
+          <t>2146.86</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2214.66</t>
+          <t>2139.46</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2214.84</t>
+          <t>2214.93</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2202.68</t>
+          <t>2204.81</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3559.12</t>
+          <t>3603.57</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3466.03</t>
+          <t>3374.88</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>3006.40</t>
+          <t>3030.83</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2889.84</t>
+          <t>2822.20</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2243.16</t>
+          <t>2152.57</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2230.47</t>
+          <t>2142.69</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2230.01</t>
+          <t>2222.92</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2217.79</t>
+          <t>2212.94</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3575.50</t>
+          <t>3619.02</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3484.31</t>
+          <t>3385.93</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>3022.85</t>
+          <t>3048.78</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2901.25</t>
+          <t>2829.73</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2268.19</t>
+          <t>2160.14</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2256.92</t>
+          <t>2149.99</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2215.12</t>
+          <t>2220.25</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2203.55</t>
+          <t>2209.10</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3598.43</t>
+          <t>3640.23</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3510.84</t>
+          <t>3404.45</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>3043.57</t>
+          <t>3069.49</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2919.37</t>
+          <t>2847.34</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2284.86</t>
+          <t>2175.64</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2273.65</t>
+          <t>2165.49</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2234.59</t>
+          <t>2206.82</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2223.10</t>
+          <t>2195.47</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3697.06</t>
+          <t>3745.81</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3644.98</t>
+          <t>3525.97</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>3135.21</t>
+          <t>3138.51</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2985.33</t>
+          <t>2919.92</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2373.37</t>
+          <t>2276.79</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2362.12</t>
+          <t>2266.76</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2338.55</t>
+          <t>2312.23</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2325.35</t>
+          <t>2296.57</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4571.27</t>
+          <t>4540.97</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>4198.26</t>
+          <t>3797.50</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3787.02</t>
+          <t>3770.00</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3558.34</t>
+          <t>3173.35</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2703.94</t>
+          <t>2433.60</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2677.91</t>
+          <t>2408.13</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2921.48</t>
+          <t>2874.62</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2928.92</t>
+          <t>2881.63</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2319.23</t>
+          <t>1861.98</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2440.15</t>
+          <t>1946.74</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>624.42</t>
+          <t>212.44</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2047.14</t>
+          <t>1665.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1626.06</t>
+          <t>1312.55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1625.90</t>
+          <t>1309.07</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1521.80</t>
+          <t>1223.86</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1566.29</t>
+          <t>1247.48</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2969.95</t>
+          <t>2393.42</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3076.79</t>
+          <t>2492.16</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2577.44</t>
+          <t>2182.61</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2563.75</t>
+          <t>2046.27</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1900.15</t>
+          <t>1515.87</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1888.11</t>
+          <t>1512.44</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1778.86</t>
+          <t>1442.25</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1779.38</t>
+          <t>1460.02</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2991.85</t>
+          <t>2388.93</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>3108.43</t>
+          <t>2475.19</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2566.81</t>
+          <t>2053.61</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2599.03</t>
+          <t>2017.99</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1914.89</t>
+          <t>1512.04</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1903.54</t>
+          <t>1507.51</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1777.87</t>
+          <t>1439.27</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1777.81</t>
+          <t>1442.11</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>3022.75</t>
+          <t>2394.88</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>3140.93</t>
+          <t>2473.60</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2594.13</t>
+          <t>2057.64</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2629.82</t>
+          <t>2024.49</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1936.35</t>
+          <t>1517.40</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1925.09</t>
+          <t>1512.77</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1794.76</t>
+          <t>1436.83</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1789.21</t>
+          <t>1441.98</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>3047.78</t>
+          <t>2401.35</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>3167.62</t>
+          <t>2473.83</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2615.63</t>
+          <t>2063.70</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2654.76</t>
+          <t>2031.97</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1950.05</t>
+          <t>1523.73</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1938.85</t>
+          <t>1519.06</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1814.85</t>
+          <t>1431.80</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1803.98</t>
+          <t>1444.92</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>3069.09</t>
+          <t>2407.35</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>3189.33</t>
+          <t>2474.48</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2640.44</t>
+          <t>2070.79</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2679.02</t>
+          <t>2040.78</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1962.88</t>
+          <t>1529.67</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1951.68</t>
+          <t>1524.99</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1831.76</t>
+          <t>1433.49</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1821.71</t>
+          <t>1440.95</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>3088.87</t>
+          <t>2413.61</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>3208.48</t>
+          <t>2476.05</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2658.36</t>
+          <t>2078.59</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2699.80</t>
+          <t>2054.09</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1974.23</t>
+          <t>1535.91</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1963.08</t>
+          <t>1531.22</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1847.81</t>
+          <t>1440.41</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1837.80</t>
+          <t>1438.56</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>3114.04</t>
+          <t>2425.41</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>3232.47</t>
+          <t>2483.69</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2683.40</t>
+          <t>2091.44</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2721.85</t>
+          <t>2072.74</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1991.64</t>
+          <t>1547.73</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1980.56</t>
+          <t>1543.02</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1870.06</t>
+          <t>1452.85</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1860.13</t>
+          <t>1443.46</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>3221.49</t>
+          <t>2511.59</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3340.14</t>
+          <t>2586.07</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2751.79</t>
+          <t>2146.74</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2790.06</t>
+          <t>2135.03</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>2080.37</t>
+          <t>1622.71</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>2069.33</t>
+          <t>1618.18</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1961.92</t>
+          <t>1526.03</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1951.20</t>
+          <t>1519.19</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3548.11</t>
+          <t>2917.21</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3808.83</t>
+          <t>3035.81</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>3259.43</t>
+          <t>2567.02</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>3260.65</t>
+          <t>2548.45</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2415.86</t>
+          <t>1918.98</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2389.53</t>
+          <t>1896.99</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2414.33</t>
+          <t>1896.87</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2418.38</t>
+          <t>1904.48</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2691.00</t>
+          <t>2769.54</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2758.52</t>
+          <t>2778.68</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1582.41</t>
+          <t>1337.81</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2347.81</t>
+          <t>2314.57</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1907.42</t>
+          <t>1898.75</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1899.01</t>
+          <t>1887.82</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1883.15</t>
+          <t>1940.30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1866.30</t>
+          <t>1919.70</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3489.15</t>
+          <t>3543.65</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3432.94</t>
+          <t>3371.48</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2983.89</t>
+          <t>3050.23</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2872.68</t>
+          <t>2759.12</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2221.51</t>
+          <t>2096.20</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2212.23</t>
+          <t>2204.25</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2157.20</t>
+          <t>2211.77</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2143.51</t>
+          <t>2194.79</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3527.84</t>
+          <t>3563.86</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3458.86</t>
+          <t>3410.53</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2951.88</t>
+          <t>3029.40</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2901.64</t>
+          <t>2806.16</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2238.54</t>
+          <t>2228.73</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2226.77</t>
+          <t>2216.18</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2178.91</t>
+          <t>2234.42</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2172.78</t>
+          <t>2230.58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3555.29</t>
+          <t>3572.69</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3480.59</t>
+          <t>3438.69</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2970.17</t>
+          <t>3043.59</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2922.45</t>
+          <t>2848.95</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2259.06</t>
+          <t>2285.85</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2247.79</t>
+          <t>2272.14</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2205.03</t>
+          <t>2242.68</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2190.27</t>
+          <t>2234.19</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3571.89</t>
+          <t>3587.98</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3498.08</t>
+          <t>3470.02</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2986.83</t>
+          <t>3067.74</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2932.10</t>
+          <t>2978.75</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2272.55</t>
+          <t>2296.15</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2261.43</t>
+          <t>2281.38</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2214.84</t>
+          <t>2246.36</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2202.68</t>
+          <t>2238.48</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3588.52</t>
+          <t>3609.28</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3511.21</t>
+          <t>3497.28</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>3006.40</t>
+          <t>3102.61</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2947.37</t>
+          <t>2997.10</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2288.55</t>
+          <t>2303.86</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2277.63</t>
+          <t>2289.08</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2230.01</t>
+          <t>2269.81</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2217.79</t>
+          <t>2258.29</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3601.42</t>
+          <t>3621.17</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3527.37</t>
+          <t>3558.60</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>3023.57</t>
+          <t>3113.14</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2963.73</t>
+          <t>3010.84</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2300.96</t>
+          <t>2312.24</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2289.99</t>
+          <t>2298.59</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2215.12</t>
+          <t>2268.13</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2203.55</t>
+          <t>2260.52</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3622.60</t>
+          <t>3640.23</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3550.06</t>
+          <t>3579.22</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>3045.33</t>
+          <t>3131.44</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2985.70</t>
+          <t>3030.64</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2320.87</t>
+          <t>2328.46</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2309.58</t>
+          <t>2314.97</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2234.59</t>
+          <t>2276.29</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2223.10</t>
+          <t>2271.89</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3751.52</t>
+          <t>3769.54</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3668.27</t>
+          <t>3685.49</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>3135.21</t>
+          <t>3171.17</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>3070.00</t>
+          <t>3093.01</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2418.44</t>
+          <t>2434.57</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2407.58</t>
+          <t>2421.02</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2338.55</t>
+          <t>2356.21</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2325.35</t>
+          <t>2347.06</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4587.03</t>
+          <t>4627.07</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>4414.86</t>
+          <t>4214.05</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3832.61</t>
+          <t>3816.31</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3640.77</t>
+          <t>3544.81</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2762.45</t>
+          <t>2791.98</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2731.24</t>
+          <t>2765.52</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2921.48</t>
+          <t>2904.59</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2928.92</t>
+          <t>2922.75</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
